--- a/metadata/transducer_locations.xlsx
+++ b/metadata/transducer_locations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bowmani\Documents\Thesis - UoG\Temporary Deployments\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bowmani\Documents\Thesis - UoG\Temporary Deployments\2024\R\tdproc\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8E1885-7B39-4386-9F66-382513B5AA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C071255-311C-448E-B069-A5F0CC856B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27720" yWindow="150" windowWidth="20265" windowHeight="15645" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
   </bookViews>
   <sheets>
     <sheet name="ELR" sheetId="3" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>R1641</t>
   </si>
   <si>
-    <t>ELR1-R1_Port1_078489_20240626_1200.rsk</t>
-  </si>
-  <si>
     <t>ELR1-R1_Port10_208648_20240626_1131.rsk</t>
   </si>
   <si>
@@ -116,30 +113,6 @@
     <t>ELR1-R1_Port16_208651_20240626_1035.rsk</t>
   </si>
   <si>
-    <t>ELR1-R1_Port2_208678_20240626_1157.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port3_082140_20240626_1153.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port4_208674_20240626_1156.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port5_208669_20240626_1156.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port6_081844_20240626_1140.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port7_081817_20240626_1129.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port8_208659_20240626_1129.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port9_078180_20240626_1129.rsk</t>
-  </si>
-  <si>
     <t>ELR1-R1_Liner_082215_20240626_1217.rsk</t>
   </si>
   <si>
@@ -161,9 +134,6 @@
     <t>ELR1-R2_Liner_082209_20240624_2053.rsk</t>
   </si>
   <si>
-    <t>ELR1-R2_Port1_208668_20240624_1749.rsk</t>
-  </si>
-  <si>
     <t>ELR1-R2_Port10_208650_20240624_1933.rsk</t>
   </si>
   <si>
@@ -194,36 +164,12 @@
     <t>ELR1-R2_Port19_078075_20240624_2052.rsk</t>
   </si>
   <si>
-    <t>ELR1-R2_Port2_082139_20240624_1810.rsk</t>
-  </si>
-  <si>
     <t>ELR1-R2_Port20_078074_20240624_2013.rsk</t>
   </si>
   <si>
     <t>ELR1-R2_Port21_078083_20240624_2020.rsk</t>
   </si>
   <si>
-    <t>ELR1-R2_Port3_208672_20240624_1829.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port4_078526_20240624_1824.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port5_208677_20240624_1843.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port6_078528_20240624_1900.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port7_078189_20240624_1937.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port8_208649_20240624_1901.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port9_208656_20240624_1905.rsk</t>
-  </si>
-  <si>
     <t>ELR2-R1</t>
   </si>
   <si>
@@ -489,6 +435,60 @@
   </si>
   <si>
     <t>ELR2-R2_ShortBaro_R9462.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port01_078489_20240626_1200.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port02_208678_20240626_1157.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port03_082140_20240626_1153.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port09_078180_20240626_1129.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port08_208659_20240626_1129.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port07_081817_20240626_1129.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port06_081844_20240626_1140.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port05_208669_20240626_1156.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port04_208674_20240626_1156.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port09_208656_20240624_1905.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port08_208649_20240624_1901.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port07_078189_20240624_1937.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port06_078528_20240624_1900.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port05_208677_20240624_1843.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port04_078526_20240624_1824.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port03_208672_20240624_1829.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port02_082139_20240624_1810.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port01_208668_20240624_1749.rsk</t>
   </si>
 </sst>
 </file>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8BA916-5B3E-4C43-9CC4-45BC13B1A502}">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -906,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -938,7 +938,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -970,7 +970,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1002,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1034,7 +1034,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1066,7 +1066,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1098,7 +1098,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1162,7 +1162,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1194,7 +1194,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1226,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1258,7 +1258,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1290,7 +1290,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1322,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1354,7 +1354,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -1386,7 +1386,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -1418,7 +1418,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -1447,7 +1447,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -1479,7 +1479,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -1511,7 +1511,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1543,7 +1543,7 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -1575,7 +1575,7 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -1607,7 +1607,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1639,7 +1639,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1671,7 +1671,7 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1703,7 +1703,7 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1735,7 +1735,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1767,7 +1767,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1799,7 +1799,7 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1831,7 +1831,7 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1863,7 +1863,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1895,7 +1895,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1927,7 +1927,7 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1959,7 +1959,7 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -1991,7 +1991,7 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2023,7 +2023,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2055,7 +2055,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2087,7 +2087,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2119,7 +2119,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2151,7 +2151,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2183,7 +2183,7 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2215,7 +2215,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2247,7 +2247,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2279,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2308,7 +2308,7 @@
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2">
         <v>208660</v>
@@ -2337,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D47" s="2">
         <v>208652</v>
@@ -2366,7 +2366,7 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2">
         <v>81839</v>
@@ -2395,7 +2395,7 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D49" s="2">
         <v>208655</v>
@@ -2424,7 +2424,7 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D50" s="2">
         <v>77752</v>
@@ -2453,7 +2453,7 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2">
         <v>78183</v>
@@ -2482,7 +2482,7 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D52" s="2">
         <v>208654</v>
@@ -2511,7 +2511,7 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D53" s="2">
         <v>81833</v>
@@ -2540,7 +2540,7 @@
         <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D54" s="2">
         <v>82214</v>
@@ -2569,7 +2569,7 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D55" s="2">
         <v>82142</v>
@@ -2598,7 +2598,7 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D56" s="2">
         <v>78534</v>
@@ -2627,7 +2627,7 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2">
         <v>208671</v>
@@ -2656,7 +2656,7 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D58" s="2">
         <v>78532</v>
@@ -2685,7 +2685,7 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D59" s="2">
         <v>78527</v>
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D60" s="2">
         <v>203042</v>
@@ -2743,7 +2743,7 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D61" s="2">
         <v>213650</v>
@@ -2772,7 +2772,7 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D62" s="2">
         <v>77658</v>
@@ -2801,7 +2801,7 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D63" s="2">
         <v>77657</v>
@@ -2830,7 +2830,7 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D64" s="2">
         <v>77656</v>
@@ -2859,7 +2859,7 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D65" s="2">
         <v>77654</v>
@@ -2888,7 +2888,7 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D66" s="2">
         <v>81535</v>
@@ -2917,7 +2917,7 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D67" s="2">
         <v>78078</v>
@@ -2946,7 +2946,7 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D68" s="2">
         <v>213562</v>
@@ -2975,7 +2975,7 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D69" s="2">
         <v>78077</v>
@@ -3004,7 +3004,7 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D70" s="2">
         <v>81845</v>
@@ -3033,7 +3033,7 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D71" s="2">
         <v>208666</v>
@@ -3062,7 +3062,7 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D72" s="2">
         <v>208667</v>
@@ -3091,7 +3091,7 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D73" s="2">
         <v>208657</v>
@@ -3120,7 +3120,7 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D74" s="2">
         <v>208665</v>
@@ -3149,7 +3149,7 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D75" s="2">
         <v>208664</v>
@@ -3178,7 +3178,7 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D76" s="2">
         <v>81827</v>
@@ -3207,7 +3207,7 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D77" s="2">
         <v>78179</v>
@@ -3236,7 +3236,7 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D78" s="2">
         <v>208675</v>
@@ -3265,7 +3265,7 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D79" s="2">
         <v>203041</v>
@@ -3294,7 +3294,7 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D80" s="2">
         <v>208679</v>
@@ -3323,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D81" s="2">
         <v>208670</v>
@@ -3352,7 +3352,7 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D82" s="2">
         <v>82210</v>
@@ -3381,13 +3381,13 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E83" s="3">
         <v>12</v>
@@ -3413,13 +3413,13 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E84" s="3">
         <v>11</v>
@@ -3445,13 +3445,13 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E85" s="3">
         <v>10</v>
@@ -3477,13 +3477,13 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E86" s="3">
         <v>9</v>
@@ -3509,13 +3509,13 @@
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E87" s="3">
         <v>8</v>
@@ -3541,13 +3541,13 @@
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E88" s="3">
         <v>7</v>
@@ -3573,13 +3573,13 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E89" s="3">
         <v>6</v>
@@ -3605,13 +3605,13 @@
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E90" s="3">
         <v>5</v>
@@ -3637,13 +3637,13 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E91" s="3">
         <v>4</v>
@@ -3669,13 +3669,13 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E92" s="3">
         <v>3</v>
@@ -3701,13 +3701,13 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E93" s="3">
         <v>2</v>
@@ -3733,13 +3733,13 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E94" s="3">
         <v>1</v>
@@ -3765,7 +3765,7 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
@@ -3774,7 +3774,7 @@
         <v>77642</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>8</v>
@@ -3794,7 +3794,7 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -3803,7 +3803,7 @@
         <v>77642</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>8</v>
@@ -3823,16 +3823,16 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>8</v>
@@ -3852,13 +3852,13 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E98" s="3">
         <v>14</v>
@@ -3884,13 +3884,13 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E99" s="3">
         <v>13</v>
@@ -3916,13 +3916,13 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E100" s="3">
         <v>12</v>
@@ -3948,13 +3948,13 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E101" s="3">
         <v>11</v>
@@ -3980,13 +3980,13 @@
         <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E102" s="3">
         <v>10</v>
@@ -4012,7 +4012,7 @@
         <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4044,7 +4044,7 @@
         <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4076,7 +4076,7 @@
         <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4108,7 +4108,7 @@
         <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4140,7 +4140,7 @@
         <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4172,7 +4172,7 @@
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -4204,7 +4204,7 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -4236,7 +4236,7 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -4268,7 +4268,7 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -4300,13 +4300,13 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C112" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E112" s="3">
         <v>12</v>
@@ -4332,13 +4332,13 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C113" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E113" s="3">
         <v>11</v>
@@ -4364,13 +4364,13 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C114" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E114" s="3">
         <v>10</v>
@@ -4396,10 +4396,10 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C115" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D115" s="2">
         <v>208664</v>
@@ -4428,10 +4428,10 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C116" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D116" s="2">
         <v>208661</v>
@@ -4460,10 +4460,10 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C117" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D117" s="2">
         <v>208653</v>
@@ -4492,10 +4492,10 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C118" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D118" s="2">
         <v>208678</v>
@@ -4524,10 +4524,10 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C119" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D119" s="2">
         <v>208673</v>
@@ -4556,10 +4556,10 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C120" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D120" s="2">
         <v>208671</v>
@@ -4588,10 +4588,10 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C121" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D121" s="2">
         <v>208679</v>
@@ -4620,10 +4620,10 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C122" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D122" s="2">
         <v>78489</v>
@@ -4652,10 +4652,10 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C123" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D123" s="2">
         <v>208675</v>
@@ -4684,13 +4684,13 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C124" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>16</v>
@@ -4716,13 +4716,13 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E125" s="3">
         <v>12</v>
@@ -4748,13 +4748,13 @@
         <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E126" s="3">
         <v>11</v>
@@ -4780,13 +4780,13 @@
         <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E127" s="3">
         <v>10</v>
@@ -4812,13 +4812,13 @@
         <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E128" s="3">
         <v>9</v>
@@ -4844,13 +4844,13 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E129" s="3">
         <v>8</v>
@@ -4876,10 +4876,10 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C130" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D130" s="2">
         <v>81841</v>
@@ -4908,10 +4908,10 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C131" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D131" s="2">
         <v>81811</v>
@@ -4940,10 +4940,10 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C132" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D132" s="2">
         <v>78534</v>
@@ -4972,10 +4972,10 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C133" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D133" s="2">
         <v>78490</v>
@@ -5004,10 +5004,10 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C134" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D134" s="2">
         <v>78488</v>
@@ -5036,10 +5036,10 @@
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C135" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D135" s="2">
         <v>208669</v>
@@ -5068,10 +5068,10 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C136" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D136" s="2">
         <v>78533</v>
@@ -5100,13 +5100,13 @@
         <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C137" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>16</v>
@@ -5132,16 +5132,16 @@
         <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C138" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>8</v>

--- a/metadata/transducer_locations.xlsx
+++ b/metadata/transducer_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bowmani\Documents\Thesis - UoG\Temporary Deployments\2024\R\tdproc\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C071255-311C-448E-B069-A5F0CC856B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1C0F01-7692-4324-AF76-37B9FD937F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
+    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15720" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
   </bookViews>
   <sheets>
     <sheet name="ELR" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="160">
   <si>
     <t>file_name</t>
   </si>
@@ -489,15 +489,41 @@
   </si>
   <si>
     <t>ELR1-R2_Port01_208668_20240624_1749.rsk</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -538,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8BA916-5B3E-4C43-9CC4-45BC13B1A502}">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1138,8 +1164,8 @@
       <c r="D9" s="2">
         <v>78180</v>
       </c>
-      <c r="E9" s="3">
-        <v>9</v>
+      <c r="E9" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="F9" s="1">
         <v>87.08</v>
@@ -1170,8 +1196,8 @@
       <c r="D10" s="2">
         <v>208659</v>
       </c>
-      <c r="E10" s="3">
-        <v>8</v>
+      <c r="E10" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="F10" s="1">
         <v>90.54</v>
@@ -1202,8 +1228,8 @@
       <c r="D11" s="2">
         <v>81817</v>
       </c>
-      <c r="E11" s="3">
-        <v>7</v>
+      <c r="E11" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F11" s="1">
         <v>93.2</v>
@@ -1234,8 +1260,8 @@
       <c r="D12" s="2">
         <v>81844</v>
       </c>
-      <c r="E12" s="3">
-        <v>6</v>
+      <c r="E12" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="F12" s="1">
         <v>97.82</v>
@@ -1266,8 +1292,8 @@
       <c r="D13" s="2">
         <v>208669</v>
       </c>
-      <c r="E13" s="3">
-        <v>5</v>
+      <c r="E13" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="F13" s="1">
         <v>102.16</v>
@@ -1298,8 +1324,8 @@
       <c r="D14" s="2">
         <v>208674</v>
       </c>
-      <c r="E14" s="3">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F14" s="1">
         <v>108</v>
@@ -1330,8 +1356,8 @@
       <c r="D15" s="2">
         <v>82140</v>
       </c>
-      <c r="E15" s="3">
-        <v>3</v>
+      <c r="E15" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F15" s="1">
         <v>115.71</v>
@@ -1362,8 +1388,8 @@
       <c r="D16" s="2">
         <v>208678</v>
       </c>
-      <c r="E16" s="3">
-        <v>2</v>
+      <c r="E16" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F16" s="1">
         <v>122.5</v>
@@ -1394,8 +1420,8 @@
       <c r="D17" s="2">
         <v>78489</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
+      <c r="E17" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F17" s="1">
         <v>129.22999999999999</v>
@@ -1999,8 +2025,8 @@
       <c r="D36" s="2">
         <v>208656</v>
       </c>
-      <c r="E36" s="3">
-        <v>9</v>
+      <c r="E36" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="F36" s="1">
         <v>74.89</v>
@@ -2031,8 +2057,8 @@
       <c r="D37" s="2">
         <v>208649</v>
       </c>
-      <c r="E37" s="3">
-        <v>8</v>
+      <c r="E37" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="F37" s="1">
         <v>78.319999999999993</v>
@@ -2063,8 +2089,8 @@
       <c r="D38" s="2">
         <v>78189</v>
       </c>
-      <c r="E38" s="3">
-        <v>7</v>
+      <c r="E38" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F38" s="1">
         <v>84.57</v>
@@ -2095,8 +2121,8 @@
       <c r="D39" s="2">
         <v>78528</v>
       </c>
-      <c r="E39" s="3">
-        <v>6</v>
+      <c r="E39" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="F39" s="1">
         <v>93.46</v>
@@ -2127,8 +2153,8 @@
       <c r="D40" s="2">
         <v>208677</v>
       </c>
-      <c r="E40" s="3">
-        <v>5</v>
+      <c r="E40" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="F40" s="1">
         <v>100.16</v>
@@ -2159,8 +2185,8 @@
       <c r="D41" s="2">
         <v>78526</v>
       </c>
-      <c r="E41" s="3">
-        <v>4</v>
+      <c r="E41" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F41" s="1">
         <v>107.9</v>
@@ -2191,8 +2217,8 @@
       <c r="D42" s="2">
         <v>208672</v>
       </c>
-      <c r="E42" s="3">
-        <v>3</v>
+      <c r="E42" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F42" s="1">
         <v>113.75</v>
@@ -2223,8 +2249,8 @@
       <c r="D43" s="2">
         <v>82139</v>
       </c>
-      <c r="E43" s="3">
-        <v>2</v>
+      <c r="E43" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F43" s="1">
         <v>122.55</v>
@@ -2255,8 +2281,8 @@
       <c r="D44" s="2">
         <v>208668</v>
       </c>
-      <c r="E44" s="3">
-        <v>1</v>
+      <c r="E44" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F44" s="1">
         <v>129.85</v>
@@ -2458,8 +2484,8 @@
       <c r="D51" s="2">
         <v>78183</v>
       </c>
-      <c r="E51" s="3">
-        <v>9</v>
+      <c r="E51" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="F51" s="1">
         <v>96.99</v>
@@ -2487,8 +2513,8 @@
       <c r="D52" s="2">
         <v>208654</v>
       </c>
-      <c r="E52" s="3">
-        <v>8</v>
+      <c r="E52" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="F52" s="1">
         <v>101.23</v>
@@ -2516,8 +2542,8 @@
       <c r="D53" s="2">
         <v>81833</v>
       </c>
-      <c r="E53" s="3">
-        <v>7</v>
+      <c r="E53" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F53" s="1">
         <v>104.35</v>
@@ -2545,8 +2571,8 @@
       <c r="D54" s="2">
         <v>82214</v>
       </c>
-      <c r="E54" s="3">
-        <v>6</v>
+      <c r="E54" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="F54" s="1">
         <v>106.77</v>
@@ -2574,8 +2600,8 @@
       <c r="D55" s="2">
         <v>82142</v>
       </c>
-      <c r="E55" s="3">
-        <v>5</v>
+      <c r="E55" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="F55" s="1">
         <v>118.81</v>
@@ -2603,8 +2629,8 @@
       <c r="D56" s="2">
         <v>78534</v>
       </c>
-      <c r="E56" s="3">
-        <v>4</v>
+      <c r="E56" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F56" s="1">
         <v>125.43</v>
@@ -2632,8 +2658,8 @@
       <c r="D57" s="2">
         <v>208671</v>
       </c>
-      <c r="E57" s="3">
-        <v>3</v>
+      <c r="E57" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F57" s="1">
         <v>129.53</v>
@@ -2661,8 +2687,8 @@
       <c r="D58" s="2">
         <v>78532</v>
       </c>
-      <c r="E58" s="3">
-        <v>2</v>
+      <c r="E58" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F58" s="1">
         <v>132.94</v>
@@ -2690,8 +2716,8 @@
       <c r="D59" s="2">
         <v>78527</v>
       </c>
-      <c r="E59" s="3">
-        <v>1</v>
+      <c r="E59" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F59" s="1">
         <v>138.31</v>
@@ -3096,8 +3122,8 @@
       <c r="D73" s="2">
         <v>208657</v>
       </c>
-      <c r="E73" s="3">
-        <v>9</v>
+      <c r="E73" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="F73" s="1">
         <v>85.3</v>
@@ -3125,8 +3151,8 @@
       <c r="D74" s="2">
         <v>208665</v>
       </c>
-      <c r="E74" s="3">
-        <v>8</v>
+      <c r="E74" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="F74" s="1">
         <v>91.05</v>
@@ -3154,8 +3180,8 @@
       <c r="D75" s="2">
         <v>208664</v>
       </c>
-      <c r="E75" s="3">
-        <v>7</v>
+      <c r="E75" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F75" s="1">
         <v>95.74</v>
@@ -3183,8 +3209,8 @@
       <c r="D76" s="2">
         <v>81827</v>
       </c>
-      <c r="E76" s="3">
-        <v>6</v>
+      <c r="E76" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="F76" s="1">
         <v>100.68</v>
@@ -3212,8 +3238,8 @@
       <c r="D77" s="2">
         <v>78179</v>
       </c>
-      <c r="E77" s="3">
-        <v>5</v>
+      <c r="E77" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="F77" s="1">
         <v>111.17</v>
@@ -3241,8 +3267,8 @@
       <c r="D78" s="2">
         <v>208675</v>
       </c>
-      <c r="E78" s="3">
-        <v>4</v>
+      <c r="E78" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F78" s="1">
         <v>119.68</v>
@@ -3270,8 +3296,8 @@
       <c r="D79" s="2">
         <v>203041</v>
       </c>
-      <c r="E79" s="3">
-        <v>3</v>
+      <c r="E79" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F79" s="1">
         <v>122.07</v>
@@ -3299,8 +3325,8 @@
       <c r="D80" s="2">
         <v>208679</v>
       </c>
-      <c r="E80" s="3">
-        <v>2</v>
+      <c r="E80" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F80" s="1">
         <v>135.83000000000001</v>
@@ -3328,8 +3354,8 @@
       <c r="D81" s="2">
         <v>208670</v>
       </c>
-      <c r="E81" s="3">
-        <v>1</v>
+      <c r="E81" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F81" s="1">
         <v>139.72</v>
@@ -3485,8 +3511,8 @@
       <c r="D86" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E86" s="3">
-        <v>9</v>
+      <c r="E86" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="F86" s="1">
         <v>73.72</v>
@@ -3517,8 +3543,8 @@
       <c r="D87" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E87" s="3">
-        <v>8</v>
+      <c r="E87" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="F87" s="1">
         <v>91.28</v>
@@ -3549,8 +3575,8 @@
       <c r="D88" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E88" s="3">
-        <v>7</v>
+      <c r="E88" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F88" s="1">
         <v>104.83</v>
@@ -3581,8 +3607,8 @@
       <c r="D89" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E89" s="3">
-        <v>6</v>
+      <c r="E89" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="F89" s="1">
         <v>108.8</v>
@@ -3613,8 +3639,8 @@
       <c r="D90" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E90" s="3">
-        <v>5</v>
+      <c r="E90" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="F90" s="1">
         <v>110.76</v>
@@ -3645,8 +3671,8 @@
       <c r="D91" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E91" s="3">
-        <v>4</v>
+      <c r="E91" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F91" s="1">
         <v>112.64</v>
@@ -3677,8 +3703,8 @@
       <c r="D92" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E92" s="3">
-        <v>3</v>
+      <c r="E92" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F92" s="1">
         <v>116.64</v>
@@ -3709,8 +3735,8 @@
       <c r="D93" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E93" s="3">
-        <v>2</v>
+      <c r="E93" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F93" s="1">
         <v>122.86</v>
@@ -3741,8 +3767,8 @@
       <c r="D94" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E94" s="3">
-        <v>1</v>
+      <c r="E94" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F94" s="1">
         <v>125.56</v>
@@ -4020,8 +4046,8 @@
       <c r="D103" s="2">
         <v>208649</v>
       </c>
-      <c r="E103" s="3">
-        <v>9</v>
+      <c r="E103" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="F103" s="1">
         <v>76.53</v>
@@ -4052,8 +4078,8 @@
       <c r="D104" s="2">
         <v>208658</v>
       </c>
-      <c r="E104" s="3">
-        <v>8</v>
+      <c r="E104" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="F104" s="1">
         <v>95.43</v>
@@ -4084,8 +4110,8 @@
       <c r="D105" s="2">
         <v>203031</v>
       </c>
-      <c r="E105" s="3">
-        <v>7</v>
+      <c r="E105" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F105" s="1">
         <v>99.39</v>
@@ -4116,8 +4142,8 @@
       <c r="D106" s="2">
         <v>208672</v>
       </c>
-      <c r="E106" s="3">
-        <v>6</v>
+      <c r="E106" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="F106" s="1">
         <v>110.79</v>
@@ -4148,8 +4174,8 @@
       <c r="D107" s="2">
         <v>208676</v>
       </c>
-      <c r="E107" s="3">
-        <v>5</v>
+      <c r="E107" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="F107" s="1">
         <v>113.75</v>
@@ -4180,8 +4206,8 @@
       <c r="D108" s="2">
         <v>208674</v>
       </c>
-      <c r="E108" s="3">
-        <v>4</v>
+      <c r="E108" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F108" s="1">
         <v>117.34</v>
@@ -4212,8 +4238,8 @@
       <c r="D109" s="2">
         <v>208677</v>
       </c>
-      <c r="E109" s="3">
-        <v>3</v>
+      <c r="E109" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F109" s="1">
         <v>120.62</v>
@@ -4244,8 +4270,8 @@
       <c r="D110" s="2">
         <v>208668</v>
       </c>
-      <c r="E110" s="3">
-        <v>2</v>
+      <c r="E110" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F110" s="1">
         <v>124.69</v>
@@ -4276,8 +4302,8 @@
       <c r="D111" s="2">
         <v>208670</v>
       </c>
-      <c r="E111" s="3">
-        <v>1</v>
+      <c r="E111" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F111" s="1">
         <v>126.87</v>
@@ -4404,8 +4430,8 @@
       <c r="D115" s="2">
         <v>208664</v>
       </c>
-      <c r="E115" s="3">
-        <v>9</v>
+      <c r="E115" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="F115" s="1">
         <v>96.99</v>
@@ -4436,8 +4462,8 @@
       <c r="D116" s="2">
         <v>208661</v>
       </c>
-      <c r="E116" s="3">
-        <v>8</v>
+      <c r="E116" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="F116" s="1">
         <v>105.23</v>
@@ -4468,8 +4494,8 @@
       <c r="D117" s="2">
         <v>208653</v>
       </c>
-      <c r="E117" s="3">
-        <v>7</v>
+      <c r="E117" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F117" s="1">
         <v>107.28</v>
@@ -4500,8 +4526,8 @@
       <c r="D118" s="2">
         <v>208678</v>
       </c>
-      <c r="E118" s="3">
-        <v>6</v>
+      <c r="E118" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="F118" s="1">
         <v>111.26</v>
@@ -4532,8 +4558,8 @@
       <c r="D119" s="2">
         <v>208673</v>
       </c>
-      <c r="E119" s="3">
-        <v>5</v>
+      <c r="E119" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="F119" s="1">
         <v>115.83</v>
@@ -4564,8 +4590,8 @@
       <c r="D120" s="2">
         <v>208671</v>
       </c>
-      <c r="E120" s="3">
-        <v>4</v>
+      <c r="E120" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F120" s="1">
         <v>125.43</v>
@@ -4596,8 +4622,8 @@
       <c r="D121" s="2">
         <v>208679</v>
       </c>
-      <c r="E121" s="3">
-        <v>3</v>
+      <c r="E121" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F121" s="1">
         <v>134.11000000000001</v>
@@ -4628,8 +4654,8 @@
       <c r="D122" s="2">
         <v>78489</v>
       </c>
-      <c r="E122" s="3">
-        <v>2</v>
+      <c r="E122" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F122" s="1">
         <v>137.25</v>
@@ -4660,8 +4686,8 @@
       <c r="D123" s="2">
         <v>208675</v>
       </c>
-      <c r="E123" s="3">
-        <v>1</v>
+      <c r="E123" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F123" s="1">
         <v>138.47</v>
@@ -4820,8 +4846,8 @@
       <c r="D128" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E128" s="3">
-        <v>9</v>
+      <c r="E128" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="F128" s="1">
         <v>63.28</v>
@@ -4852,8 +4878,8 @@
       <c r="D129" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E129" s="3">
-        <v>8</v>
+      <c r="E129" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="F129" s="1">
         <v>72.8</v>
@@ -4884,8 +4910,8 @@
       <c r="D130" s="2">
         <v>81841</v>
       </c>
-      <c r="E130" s="3">
-        <v>7</v>
+      <c r="E130" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F130" s="1">
         <v>105.98</v>
@@ -4916,8 +4942,8 @@
       <c r="D131" s="2">
         <v>81811</v>
       </c>
-      <c r="E131" s="3">
-        <v>6</v>
+      <c r="E131" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="F131" s="1">
         <v>114.5</v>
@@ -4948,8 +4974,8 @@
       <c r="D132" s="2">
         <v>78534</v>
       </c>
-      <c r="E132" s="3">
-        <v>5</v>
+      <c r="E132" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="F132" s="1">
         <v>119.68</v>
@@ -4980,8 +5006,8 @@
       <c r="D133" s="2">
         <v>78490</v>
       </c>
-      <c r="E133" s="3">
-        <v>4</v>
+      <c r="E133" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F133" s="1">
         <v>120.98</v>
@@ -5012,8 +5038,8 @@
       <c r="D134" s="2">
         <v>78488</v>
       </c>
-      <c r="E134" s="3">
-        <v>3</v>
+      <c r="E134" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F134" s="1">
         <v>123.73</v>
@@ -5044,8 +5070,8 @@
       <c r="D135" s="2">
         <v>208669</v>
       </c>
-      <c r="E135" s="3">
-        <v>2</v>
+      <c r="E135" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F135" s="1">
         <v>128.53</v>
@@ -5076,8 +5102,8 @@
       <c r="D136" s="2">
         <v>78533</v>
       </c>
-      <c r="E136" s="3">
-        <v>1</v>
+      <c r="E136" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F136" s="1">
         <v>140.9</v>

--- a/metadata/transducer_locations.xlsx
+++ b/metadata/transducer_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bowmani\Documents\Thesis - UoG\Temporary Deployments\2024\R\tdproc\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1C0F01-7692-4324-AF76-37B9FD937F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D9139C-E467-416D-9E30-01EC1935E9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15720" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="241">
   <si>
     <t>file_name</t>
   </si>
@@ -516,6 +516,249 @@
   </si>
   <si>
     <t>02</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port20_077658_20241023_1604.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port19_077657_20241023_1607.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port18_077656_20241023_1608.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port17_077654_20241023_1606.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port16_081535_20241023_1610.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port15_078078_20241023_1612.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port14_213562_20241023_1636.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port13_078077_20241023_1627.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port12_081845_20241017_1322.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port11_208666_20241023_1659.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port10_208667_20241023_1659.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port09_208657_20241023_1629.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port08_208665_20241023_1628.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port07_208664_20241023_1609.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port06_081827_20241017_1253.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port05_078179_20241017_1240.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port04_208675_20241023_1706.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port03_203041_20241023_1707.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port02_208679_20241023_1641.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port01_208670_20241023_1640.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Liner_082210_20241017_1252.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_213655_20241029_1451.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_Diver_241031094139_R1641.DAT</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_Diver_241031104748_R1641.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_Diver_241031104748_R1641.MON</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_Diver_241031104748_R1641.xlsx</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Liner_082215_20240730_1030.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port01_078489_20240730_1034.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port02_208678_20240730_1052.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port03_082140_20240730_1053.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port04_208674_20240730_1104.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port05_208669_20240730_1124.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port06_081844_20240730_1129.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port07_081817_20240730_1134.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port08_208659_20240730_1140.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port09_078180_20240730_1144.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port10_208648_20240730_1149.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port11_078182_20240826_1028.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port12_206590_20240730_1157.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port13_078184_20240730_1200.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port14_077753_20240730_1210.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port15_208663_20240730_1209.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port16_208651_20240730_1214.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Liner_082209_20241029_1447.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port01_208668_20241030_1654.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port02_082139_20241030_1634.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port03_208672_20241030_1633.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port04_078526_20241030_1632.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port05_208677_20241030_1629.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port06_078528_20241030_1631.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port07_078189_20241030_1550.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port08_208649_20241030_1545.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port09_208656_20241030_1540.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port10_208650_20241030_1539.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port11_081843_20241030_1538.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port12_208653_20241030_1538.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port13_208658_20241029_1617.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port14_077919_20241029_1614.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port15_077923_20241029_1609.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port16_203023_20241029_1605.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port17_081547_20241029_1602.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port18_077916_20241029_1556.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port19_078075_20241029_1556.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port20_078074_20241029_1555.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port21_078083_20241029_1538.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Baro_213650_20241017_1320.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Liner_203042_20241017_1217.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port01_078527_20241024_1515.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port02_078532_20241024_1514.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port03_208671_20241024_1520.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port04_078534_20241024_1528.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port05_082142_20241024_1537.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port06_082214_20241024_1548.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port07_081833_20241024_1552.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port08_208654_20241024_1556.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port09_078183_20241024_1605.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port10_077752_20241024_1606.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port11_208655_20241024_1609.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port12_081839_20241024_1625.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port13_208652_20241024_1626.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port14_208660_20241024_1626.rsk</t>
   </si>
 </sst>
 </file>
@@ -564,7 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8BA916-5B3E-4C43-9CC4-45BC13B1A502}">
-  <dimension ref="A1:J138"/>
+  <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -964,25 +1207,25 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2">
-        <v>208663</v>
+        <v>208651</v>
       </c>
       <c r="E3" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1">
-        <v>62.89</v>
+        <v>60.77</v>
       </c>
       <c r="G3" s="1">
-        <v>63.29</v>
+        <v>61.17</v>
       </c>
       <c r="H3" s="1">
-        <v>63.18</v>
+        <v>61.06</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -996,25 +1239,25 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>77753</v>
+        <v>208663</v>
       </c>
       <c r="E4" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
-        <v>66.66</v>
+        <v>62.89</v>
       </c>
       <c r="G4" s="1">
-        <v>67.06</v>
+        <v>63.29</v>
       </c>
       <c r="H4" s="1">
-        <v>66.94</v>
+        <v>63.18</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -1028,25 +1271,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>78184</v>
+        <v>208663</v>
       </c>
       <c r="E5" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
-        <v>69.05</v>
+        <v>62.89</v>
       </c>
       <c r="G5" s="1">
-        <v>69.45</v>
+        <v>63.29</v>
       </c>
       <c r="H5" s="1">
-        <v>69.33</v>
+        <v>63.18</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -1060,25 +1303,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>206590</v>
+        <v>77753</v>
       </c>
       <c r="E6" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
-        <v>73.040000000000006</v>
+        <v>66.66</v>
       </c>
       <c r="G6" s="1">
-        <v>73.44</v>
+        <v>67.06</v>
       </c>
       <c r="H6" s="1">
-        <v>73.37</v>
+        <v>66.94</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1092,25 +1335,25 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2">
-        <v>78182</v>
+        <v>77753</v>
       </c>
       <c r="E7" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1">
-        <v>77.239999999999995</v>
+        <v>66.66</v>
       </c>
       <c r="G7" s="1">
-        <v>77.64</v>
+        <v>67.06</v>
       </c>
       <c r="H7" s="1">
-        <v>77.56</v>
+        <v>66.94</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1124,25 +1367,25 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>208648</v>
+        <v>78184</v>
       </c>
       <c r="E8" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1">
-        <v>82.05</v>
+        <v>69.05</v>
       </c>
       <c r="G8" s="1">
-        <v>82.45</v>
+        <v>69.45</v>
       </c>
       <c r="H8" s="1">
-        <v>82.33</v>
+        <v>69.33</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1156,25 +1399,25 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2">
-        <v>78180</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>152</v>
+        <v>78184</v>
+      </c>
+      <c r="E9" s="3">
+        <v>13</v>
       </c>
       <c r="F9" s="1">
-        <v>87.08</v>
+        <v>69.05</v>
       </c>
       <c r="G9" s="1">
-        <v>87.48</v>
+        <v>69.45</v>
       </c>
       <c r="H9" s="1">
-        <v>87.38</v>
+        <v>69.33</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1188,25 +1431,25 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>208659</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>153</v>
+        <v>206590</v>
+      </c>
+      <c r="E10" s="3">
+        <v>12</v>
       </c>
       <c r="F10" s="1">
-        <v>90.54</v>
+        <v>73.040000000000006</v>
       </c>
       <c r="G10" s="1">
-        <v>90.94</v>
+        <v>73.44</v>
       </c>
       <c r="H10" s="1">
-        <v>90.83</v>
+        <v>73.37</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -1220,25 +1463,25 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2">
-        <v>81817</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>154</v>
+        <v>206590</v>
+      </c>
+      <c r="E11" s="3">
+        <v>12</v>
       </c>
       <c r="F11" s="1">
-        <v>93.2</v>
+        <v>73.040000000000006</v>
       </c>
       <c r="G11" s="1">
-        <v>93.6</v>
+        <v>73.44</v>
       </c>
       <c r="H11" s="1">
-        <v>93.51</v>
+        <v>73.37</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -1252,25 +1495,25 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2">
-        <v>81844</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>155</v>
+        <v>78182</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11</v>
       </c>
       <c r="F12" s="1">
-        <v>97.82</v>
+        <v>77.239999999999995</v>
       </c>
       <c r="G12" s="1">
-        <v>98.22</v>
+        <v>77.64</v>
       </c>
       <c r="H12" s="1">
-        <v>98.13</v>
+        <v>77.56</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1284,25 +1527,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2">
-        <v>208669</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>156</v>
+        <v>78182</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11</v>
       </c>
       <c r="F13" s="1">
-        <v>102.16</v>
+        <v>77.239999999999995</v>
       </c>
       <c r="G13" s="1">
-        <v>102.56</v>
+        <v>77.64</v>
       </c>
       <c r="H13" s="1">
-        <v>102.43</v>
+        <v>77.56</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1316,25 +1559,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>208674</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>157</v>
+        <v>208648</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
       </c>
       <c r="F14" s="1">
-        <v>108</v>
+        <v>82.05</v>
       </c>
       <c r="G14" s="1">
-        <v>108.4</v>
+        <v>82.45</v>
       </c>
       <c r="H14" s="1">
-        <v>108.27</v>
+        <v>82.33</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1348,25 +1591,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2">
-        <v>82140</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>158</v>
+        <v>208648</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
       </c>
       <c r="F15" s="1">
-        <v>115.71</v>
+        <v>82.05</v>
       </c>
       <c r="G15" s="1">
-        <v>116.11</v>
+        <v>82.45</v>
       </c>
       <c r="H15" s="1">
-        <v>116</v>
+        <v>82.33</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1380,25 +1623,25 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2">
-        <v>208678</v>
+        <v>78180</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F16" s="1">
-        <v>122.5</v>
+        <v>87.08</v>
       </c>
       <c r="G16" s="1">
-        <v>122.9</v>
+        <v>87.48</v>
       </c>
       <c r="H16" s="1">
-        <v>122.78</v>
+        <v>87.38</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1412,25 +1655,25 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2">
-        <v>78489</v>
+        <v>78180</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F17" s="1">
-        <v>129.22999999999999</v>
+        <v>87.08</v>
       </c>
       <c r="G17" s="1">
-        <v>129.63</v>
+        <v>87.48</v>
       </c>
       <c r="H17" s="1">
-        <v>129.51</v>
+        <v>87.38</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1444,25 +1687,28 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2">
-        <v>82215</v>
+        <v>208659</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>8</v>
+        <v>153</v>
+      </c>
+      <c r="F18" s="1">
+        <v>90.54</v>
+      </c>
+      <c r="G18" s="1">
+        <v>90.94</v>
+      </c>
+      <c r="H18" s="1">
+        <v>90.83</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -1473,28 +1719,28 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2">
-        <v>213655</v>
+        <v>208659</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>8</v>
+        <v>153</v>
+      </c>
+      <c r="F19" s="1">
+        <v>90.54</v>
+      </c>
+      <c r="G19" s="1">
+        <v>90.94</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>90.83</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1505,28 +1751,28 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
+      <c r="D20" s="2">
+        <v>81817</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>8</v>
+        <v>154</v>
+      </c>
+      <c r="F20" s="1">
+        <v>93.2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>93.6</v>
       </c>
       <c r="H20" s="1">
-        <v>0</v>
+        <v>93.51</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -1537,31 +1783,31 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>17</v>
+      <c r="D21" s="2">
+        <v>81817</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>8</v>
+        <v>154</v>
+      </c>
+      <c r="F21" s="1">
+        <v>93.2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>93.6</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>93.51</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1569,31 +1815,31 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>17</v>
+      <c r="D22" s="2">
+        <v>81844</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>8</v>
+        <v>155</v>
+      </c>
+      <c r="F22" s="1">
+        <v>97.82</v>
+      </c>
+      <c r="G22" s="1">
+        <v>98.22</v>
       </c>
       <c r="H22" s="1">
-        <v>0</v>
+        <v>98.13</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1601,31 +1847,31 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>17</v>
+      <c r="D23" s="2">
+        <v>81844</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>8</v>
+        <v>155</v>
+      </c>
+      <c r="F23" s="1">
+        <v>97.82</v>
+      </c>
+      <c r="G23" s="1">
+        <v>98.22</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>98.13</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1633,25 +1879,25 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2">
-        <v>78083</v>
-      </c>
-      <c r="E24" s="3">
-        <v>21</v>
+        <v>208669</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="F24" s="1">
-        <v>31.2</v>
+        <v>102.16</v>
       </c>
       <c r="G24" s="1">
-        <v>31.6</v>
+        <v>102.56</v>
       </c>
       <c r="H24" s="1">
-        <v>31.42</v>
+        <v>102.43</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -1665,25 +1911,25 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2">
-        <v>78074</v>
-      </c>
-      <c r="E25" s="3">
-        <v>20</v>
+        <v>208669</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="F25" s="1">
-        <v>34.5</v>
+        <v>102.16</v>
       </c>
       <c r="G25" s="1">
-        <v>34.9</v>
+        <v>102.56</v>
       </c>
       <c r="H25" s="1">
-        <v>34.71</v>
+        <v>102.43</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -1697,25 +1943,25 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2">
-        <v>78075</v>
-      </c>
-      <c r="E26" s="3">
-        <v>19</v>
+        <v>208674</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F26" s="1">
-        <v>38.54</v>
+        <v>108</v>
       </c>
       <c r="G26" s="1">
-        <v>38.94</v>
+        <v>108.4</v>
       </c>
       <c r="H26" s="1">
-        <v>38.75</v>
+        <v>108.27</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -1729,25 +1975,25 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2">
-        <v>77916</v>
-      </c>
-      <c r="E27" s="3">
-        <v>18</v>
+        <v>208674</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F27" s="1">
-        <v>42.14</v>
+        <v>108</v>
       </c>
       <c r="G27" s="1">
-        <v>42.54</v>
+        <v>108.4</v>
       </c>
       <c r="H27" s="1">
-        <v>42.35</v>
+        <v>108.27</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -1761,25 +2007,25 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2">
-        <v>81547</v>
-      </c>
-      <c r="E28" s="3">
-        <v>17</v>
+        <v>82140</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F28" s="1">
-        <v>44.66</v>
+        <v>115.71</v>
       </c>
       <c r="G28" s="1">
-        <v>45.06</v>
+        <v>116.11</v>
       </c>
       <c r="H28" s="1">
-        <v>44.87</v>
+        <v>116</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -1793,25 +2039,25 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2">
-        <v>203023</v>
-      </c>
-      <c r="E29" s="3">
-        <v>16</v>
+        <v>82140</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F29" s="1">
-        <v>46.77</v>
+        <v>115.71</v>
       </c>
       <c r="G29" s="1">
-        <v>47.17</v>
+        <v>116.11</v>
       </c>
       <c r="H29" s="1">
-        <v>46.98</v>
+        <v>116</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -1825,25 +2071,25 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2">
-        <v>77923</v>
-      </c>
-      <c r="E30" s="3">
-        <v>15</v>
+        <v>208678</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F30" s="1">
-        <v>49.34</v>
+        <v>122.5</v>
       </c>
       <c r="G30" s="1">
-        <v>49.74</v>
+        <v>122.9</v>
       </c>
       <c r="H30" s="1">
-        <v>49.55</v>
+        <v>122.78</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1857,25 +2103,25 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2">
-        <v>77919</v>
-      </c>
-      <c r="E31" s="3">
-        <v>14</v>
+        <v>208678</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F31" s="1">
-        <v>52.35</v>
+        <v>122.5</v>
       </c>
       <c r="G31" s="1">
-        <v>52.75</v>
+        <v>122.9</v>
       </c>
       <c r="H31" s="1">
-        <v>52.56</v>
+        <v>122.78</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -1889,25 +2135,25 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2">
-        <v>208658</v>
-      </c>
-      <c r="E32" s="3">
-        <v>13</v>
+        <v>78489</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F32" s="1">
-        <v>56.82</v>
+        <v>129.22999999999999</v>
       </c>
       <c r="G32" s="1">
-        <v>57.22</v>
+        <v>129.63</v>
       </c>
       <c r="H32" s="1">
-        <v>57.03</v>
+        <v>129.51</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -1921,25 +2167,25 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2">
-        <v>208653</v>
-      </c>
-      <c r="E33" s="3">
-        <v>12</v>
+        <v>78489</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F33" s="1">
-        <v>60.25</v>
+        <v>129.22999999999999</v>
       </c>
       <c r="G33" s="1">
-        <v>60.65</v>
+        <v>129.63</v>
       </c>
       <c r="H33" s="1">
-        <v>60.46</v>
+        <v>129.51</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -1953,28 +2199,25 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2">
-        <v>81843</v>
-      </c>
-      <c r="E34" s="3">
-        <v>11</v>
-      </c>
-      <c r="F34" s="1">
-        <v>66.349999999999994</v>
-      </c>
-      <c r="G34" s="1">
-        <v>66.75</v>
-      </c>
-      <c r="H34" s="1">
-        <v>66.56</v>
+        <v>82215</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
@@ -1985,28 +2228,25 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2">
-        <v>208650</v>
-      </c>
-      <c r="E35" s="3">
-        <v>10</v>
-      </c>
-      <c r="F35" s="1">
-        <v>71.05</v>
-      </c>
-      <c r="G35" s="1">
-        <v>71.45</v>
-      </c>
-      <c r="H35" s="1">
-        <v>71.260000000000005</v>
+        <v>82215</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
@@ -2017,28 +2257,28 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2">
-        <v>208656</v>
+        <v>213655</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" s="1">
-        <v>74.89</v>
-      </c>
-      <c r="G36" s="1">
-        <v>75.290000000000006</v>
+        <v>9</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H36" s="1">
-        <v>75.099999999999994</v>
+        <v>0</v>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
@@ -2049,28 +2289,28 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2">
-        <v>208649</v>
+        <v>213655</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F37" s="1">
-        <v>78.319999999999993</v>
-      </c>
-      <c r="G37" s="1">
-        <v>78.72</v>
+        <v>9</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H37" s="1">
-        <v>78.53</v>
+        <v>0</v>
       </c>
       <c r="I37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
@@ -2081,28 +2321,28 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="2">
-        <v>78189</v>
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38" s="1">
-        <v>84.57</v>
-      </c>
-      <c r="G38" s="1">
-        <v>84.97</v>
+        <v>15</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H38" s="1">
-        <v>84.78</v>
+        <v>0</v>
       </c>
       <c r="I38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
@@ -2113,31 +2353,31 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="2">
-        <v>78528</v>
+        <v>13</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F39" s="1">
-        <v>93.46</v>
-      </c>
-      <c r="G39" s="1">
-        <v>93.86</v>
+        <v>15</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H39" s="1">
-        <v>93.67</v>
+        <v>0</v>
       </c>
       <c r="I39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2145,31 +2385,31 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="2">
-        <v>208677</v>
+        <v>13</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F40" s="1">
-        <v>100.16</v>
-      </c>
-      <c r="G40" s="1">
-        <v>100.56</v>
+        <v>15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H40" s="1">
-        <v>100.37</v>
+        <v>0</v>
       </c>
       <c r="I40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2177,31 +2417,31 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="2">
-        <v>78526</v>
+        <v>13</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F41" s="1">
-        <v>107.9</v>
-      </c>
-      <c r="G41" s="1">
-        <v>108.3</v>
+        <v>15</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H41" s="1">
-        <v>108.11</v>
+        <v>0</v>
       </c>
       <c r="I41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2209,28 +2449,28 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="2">
-        <v>208672</v>
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" s="1">
-        <v>113.75</v>
-      </c>
-      <c r="G42" s="1">
-        <v>114.15</v>
+        <v>15</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="1">
-        <v>113.97</v>
+        <v>0</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
@@ -2241,31 +2481,31 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="2">
-        <v>82139</v>
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" s="1">
-        <v>122.55</v>
-      </c>
-      <c r="G43" s="1">
-        <v>122.95</v>
+        <v>15</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H43" s="1">
-        <v>122.76</v>
+        <v>0</v>
       </c>
       <c r="I43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2273,31 +2513,31 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="2">
-        <v>208668</v>
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F44" s="1">
-        <v>129.85</v>
-      </c>
-      <c r="G44" s="1">
-        <v>130.25</v>
+        <v>15</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H44" s="1">
-        <v>130.07</v>
+        <v>0</v>
       </c>
       <c r="I44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2305,16 +2545,16 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="2">
-        <v>82209</v>
+        <v>13</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>8</v>
@@ -2322,1084 +2562,1198 @@
       <c r="G45" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
       <c r="I45" t="b">
         <v>1</v>
       </c>
       <c r="J45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>12</v>
       </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2">
-        <v>208660</v>
+        <v>78083</v>
       </c>
       <c r="E46" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F46" s="1">
-        <v>87.17</v>
+        <v>31.2</v>
       </c>
       <c r="G46" s="1">
-        <v>87.57</v>
+        <v>31.6</v>
       </c>
       <c r="H46" s="1">
-        <v>87.38</v>
+        <v>31.42</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
       </c>
       <c r="J46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>12</v>
       </c>
+      <c r="B47" t="s">
+        <v>224</v>
+      </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2">
-        <v>208652</v>
+        <v>78083</v>
       </c>
       <c r="E47" s="3">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F47" s="1">
-        <v>88.87</v>
+        <v>31.2</v>
       </c>
       <c r="G47" s="1">
-        <v>89.27</v>
+        <v>31.6</v>
       </c>
       <c r="H47" s="1">
-        <v>89.09</v>
+        <v>31.42</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
       </c>
       <c r="J47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2">
-        <v>81839</v>
+        <v>78074</v>
       </c>
       <c r="E48" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F48" s="1">
-        <v>90.04</v>
+        <v>34.5</v>
       </c>
       <c r="G48" s="1">
-        <v>90.44</v>
+        <v>34.9</v>
       </c>
       <c r="H48" s="1">
-        <v>90.25</v>
+        <v>34.71</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
       </c>
       <c r="J48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>12</v>
       </c>
+      <c r="B49" t="s">
+        <v>223</v>
+      </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2">
-        <v>208655</v>
+        <v>78074</v>
       </c>
       <c r="E49" s="3">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F49" s="1">
-        <v>93.04</v>
+        <v>34.5</v>
       </c>
       <c r="G49" s="1">
-        <v>93.44</v>
+        <v>34.9</v>
       </c>
       <c r="H49" s="1">
-        <v>93.25</v>
+        <v>34.71</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
       </c>
       <c r="J49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>12</v>
       </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2">
-        <v>77752</v>
+        <v>78075</v>
       </c>
       <c r="E50" s="3">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F50" s="1">
-        <v>94.57</v>
+        <v>38.54</v>
       </c>
       <c r="G50" s="1">
-        <v>94.97</v>
+        <v>38.94</v>
       </c>
       <c r="H50" s="1">
-        <v>94.79</v>
+        <v>38.75</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
       </c>
       <c r="J50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>12</v>
       </c>
+      <c r="B51" t="s">
+        <v>222</v>
+      </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2">
-        <v>78183</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>152</v>
+        <v>78075</v>
+      </c>
+      <c r="E51" s="3">
+        <v>19</v>
       </c>
       <c r="F51" s="1">
-        <v>96.99</v>
+        <v>38.54</v>
       </c>
       <c r="G51" s="1">
-        <v>97.39</v>
+        <v>38.94</v>
       </c>
       <c r="H51" s="1">
-        <v>97.21</v>
+        <v>38.75</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
       </c>
       <c r="J51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2">
-        <v>208654</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>153</v>
+        <v>77916</v>
+      </c>
+      <c r="E52" s="3">
+        <v>18</v>
       </c>
       <c r="F52" s="1">
-        <v>101.23</v>
+        <v>42.14</v>
       </c>
       <c r="G52" s="1">
-        <v>101.63</v>
+        <v>42.54</v>
       </c>
       <c r="H52" s="1">
-        <v>101.44</v>
+        <v>42.35</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
       </c>
       <c r="J52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
+      <c r="B53" t="s">
+        <v>221</v>
+      </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2">
-        <v>81833</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>154</v>
+        <v>77916</v>
+      </c>
+      <c r="E53" s="3">
+        <v>18</v>
       </c>
       <c r="F53" s="1">
-        <v>104.35</v>
+        <v>42.14</v>
       </c>
       <c r="G53" s="1">
-        <v>104.75</v>
+        <v>42.54</v>
       </c>
       <c r="H53" s="1">
-        <v>104.56</v>
+        <v>42.35</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
       </c>
       <c r="J53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>12</v>
       </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2">
-        <v>82214</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>155</v>
+        <v>81547</v>
+      </c>
+      <c r="E54" s="3">
+        <v>17</v>
       </c>
       <c r="F54" s="1">
-        <v>106.77</v>
+        <v>44.66</v>
       </c>
       <c r="G54" s="1">
-        <v>107.17</v>
+        <v>45.06</v>
       </c>
       <c r="H54" s="1">
-        <v>106.99</v>
+        <v>44.87</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
       </c>
       <c r="J54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>12</v>
       </c>
+      <c r="B55" t="s">
+        <v>220</v>
+      </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2">
-        <v>82142</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>156</v>
+        <v>81547</v>
+      </c>
+      <c r="E55" s="3">
+        <v>17</v>
       </c>
       <c r="F55" s="1">
-        <v>118.81</v>
+        <v>44.66</v>
       </c>
       <c r="G55" s="1">
-        <v>119.21</v>
+        <v>45.06</v>
       </c>
       <c r="H55" s="1">
-        <v>119.02</v>
+        <v>44.87</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
       </c>
       <c r="J55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>12</v>
       </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2">
-        <v>78534</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>157</v>
+        <v>203023</v>
+      </c>
+      <c r="E56" s="3">
+        <v>16</v>
       </c>
       <c r="F56" s="1">
-        <v>125.43</v>
+        <v>46.77</v>
       </c>
       <c r="G56" s="1">
-        <v>125.83</v>
+        <v>47.17</v>
       </c>
       <c r="H56" s="1">
-        <v>125.63</v>
+        <v>46.98</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
       </c>
       <c r="J56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>12</v>
       </c>
+      <c r="B57" t="s">
+        <v>219</v>
+      </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2">
-        <v>208671</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>158</v>
+        <v>203023</v>
+      </c>
+      <c r="E57" s="3">
+        <v>16</v>
       </c>
       <c r="F57" s="1">
-        <v>129.53</v>
+        <v>46.77</v>
       </c>
       <c r="G57" s="1">
-        <v>129.93</v>
+        <v>47.17</v>
       </c>
       <c r="H57" s="1">
-        <v>129.74</v>
+        <v>46.98</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
       </c>
       <c r="J57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>12</v>
       </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
       <c r="C58" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2">
-        <v>78532</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>159</v>
+        <v>77923</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15</v>
       </c>
       <c r="F58" s="1">
-        <v>132.94</v>
+        <v>49.34</v>
       </c>
       <c r="G58" s="1">
-        <v>133.34</v>
+        <v>49.74</v>
       </c>
       <c r="H58" s="1">
-        <v>133.13999999999999</v>
+        <v>49.55</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
       </c>
       <c r="J58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>12</v>
       </c>
+      <c r="B59" t="s">
+        <v>218</v>
+      </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2">
-        <v>78527</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>151</v>
+        <v>77923</v>
+      </c>
+      <c r="E59" s="3">
+        <v>15</v>
       </c>
       <c r="F59" s="1">
-        <v>138.31</v>
+        <v>49.34</v>
       </c>
       <c r="G59" s="1">
-        <v>138.71</v>
+        <v>49.74</v>
       </c>
       <c r="H59" s="1">
-        <v>138.52000000000001</v>
+        <v>49.55</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
       </c>
       <c r="J59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>12</v>
       </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2">
-        <v>203042</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>8</v>
+        <v>77919</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14</v>
+      </c>
+      <c r="F60" s="1">
+        <v>52.35</v>
+      </c>
+      <c r="G60" s="1">
+        <v>52.75</v>
       </c>
       <c r="H60" s="1">
-        <v>15</v>
+        <v>52.56</v>
       </c>
       <c r="I60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>12</v>
       </c>
+      <c r="B61" t="s">
+        <v>217</v>
+      </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2">
-        <v>213650</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>8</v>
+        <v>77919</v>
+      </c>
+      <c r="E61" s="3">
+        <v>14</v>
+      </c>
+      <c r="F61" s="1">
+        <v>52.35</v>
+      </c>
+      <c r="G61" s="1">
+        <v>52.75</v>
       </c>
       <c r="H61" s="1">
-        <v>0</v>
+        <v>52.56</v>
       </c>
       <c r="I61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>12</v>
       </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D62" s="2">
-        <v>77658</v>
+        <v>208658</v>
       </c>
       <c r="E62" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F62" s="1">
-        <v>24.2</v>
+        <v>56.82</v>
       </c>
       <c r="G62" s="1">
-        <v>24.6</v>
+        <v>57.22</v>
       </c>
       <c r="H62" s="1">
-        <v>29.4</v>
+        <v>57.03</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
       </c>
       <c r="J62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>12</v>
       </c>
+      <c r="B63" t="s">
+        <v>216</v>
+      </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2">
-        <v>77657</v>
+        <v>208658</v>
       </c>
       <c r="E63" s="3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F63" s="1">
-        <v>29.71</v>
+        <v>56.82</v>
       </c>
       <c r="G63" s="1">
-        <v>30.11</v>
+        <v>57.22</v>
       </c>
       <c r="H63" s="1">
-        <v>29.92</v>
+        <v>57.03</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
       </c>
       <c r="J63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>12</v>
       </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2">
-        <v>77656</v>
+        <v>208653</v>
       </c>
       <c r="E64" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F64" s="1">
-        <v>33.53</v>
+        <v>60.25</v>
       </c>
       <c r="G64" s="1">
-        <v>33.93</v>
+        <v>60.65</v>
       </c>
       <c r="H64" s="1">
-        <v>33.74</v>
+        <v>60.46</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
       </c>
       <c r="J64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>12</v>
       </c>
+      <c r="B65" t="s">
+        <v>215</v>
+      </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D65" s="2">
-        <v>77654</v>
+        <v>208653</v>
       </c>
       <c r="E65" s="3">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F65" s="1">
-        <v>35.61</v>
+        <v>60.25</v>
       </c>
       <c r="G65" s="1">
-        <v>36.01</v>
+        <v>60.65</v>
       </c>
       <c r="H65" s="1">
-        <v>35.82</v>
+        <v>60.46</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
       </c>
       <c r="J65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>12</v>
       </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2">
-        <v>81535</v>
+        <v>81843</v>
       </c>
       <c r="E66" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F66" s="1">
-        <v>45.11</v>
+        <v>66.349999999999994</v>
       </c>
       <c r="G66" s="1">
-        <v>45.51</v>
+        <v>66.75</v>
       </c>
       <c r="H66" s="1">
-        <v>45.32</v>
+        <v>66.56</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
       </c>
       <c r="J66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>12</v>
       </c>
+      <c r="B67" t="s">
+        <v>214</v>
+      </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D67" s="2">
-        <v>78078</v>
+        <v>81843</v>
       </c>
       <c r="E67" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F67" s="1">
-        <v>47.11</v>
+        <v>66.349999999999994</v>
       </c>
       <c r="G67" s="1">
-        <v>47.51</v>
+        <v>66.75</v>
       </c>
       <c r="H67" s="1">
-        <v>47.32</v>
+        <v>66.56</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
       </c>
       <c r="J67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>12</v>
       </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2">
-        <v>213562</v>
+        <v>208650</v>
       </c>
       <c r="E68" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F68" s="1">
-        <v>54.19</v>
+        <v>71.05</v>
       </c>
       <c r="G68" s="1">
-        <v>54.59</v>
+        <v>71.45</v>
       </c>
       <c r="H68" s="1">
-        <v>54.4</v>
+        <v>71.260000000000005</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
       </c>
       <c r="J68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
+      <c r="B69" t="s">
+        <v>213</v>
+      </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2">
-        <v>78077</v>
+        <v>208650</v>
       </c>
       <c r="E69" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F69" s="1">
-        <v>63.66</v>
+        <v>71.05</v>
       </c>
       <c r="G69" s="1">
-        <v>64.06</v>
+        <v>71.45</v>
       </c>
       <c r="H69" s="1">
-        <v>63.87</v>
+        <v>71.260000000000005</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
       </c>
       <c r="J69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
       <c r="C70" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2">
-        <v>81845</v>
-      </c>
-      <c r="E70" s="3">
-        <v>12</v>
+        <v>208656</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="F70" s="1">
-        <v>71.36</v>
+        <v>74.89</v>
       </c>
       <c r="G70" s="1">
-        <v>71.760000000000005</v>
+        <v>75.290000000000006</v>
       </c>
       <c r="H70" s="1">
-        <v>71.58</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
       </c>
       <c r="J70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>12</v>
       </c>
+      <c r="B71" t="s">
+        <v>212</v>
+      </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2">
-        <v>208666</v>
-      </c>
-      <c r="E71" s="3">
-        <v>11</v>
+        <v>208656</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="F71" s="1">
-        <v>73.39</v>
+        <v>74.89</v>
       </c>
       <c r="G71" s="1">
-        <v>73.790000000000006</v>
+        <v>75.290000000000006</v>
       </c>
       <c r="H71" s="1">
-        <v>73.599999999999994</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
       </c>
       <c r="J71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>12</v>
       </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2">
-        <v>208667</v>
-      </c>
-      <c r="E72" s="3">
-        <v>10</v>
+        <v>208649</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="F72" s="1">
-        <v>76.569999999999993</v>
+        <v>78.319999999999993</v>
       </c>
       <c r="G72" s="1">
-        <v>76.97</v>
+        <v>78.72</v>
       </c>
       <c r="H72" s="1">
-        <v>76.78</v>
+        <v>78.53</v>
       </c>
       <c r="I72" t="b">
         <v>0</v>
       </c>
       <c r="J72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>12</v>
       </c>
+      <c r="B73" t="s">
+        <v>211</v>
+      </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2">
-        <v>208657</v>
+        <v>208649</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F73" s="1">
-        <v>85.3</v>
+        <v>78.319999999999993</v>
       </c>
       <c r="G73" s="1">
-        <v>85.7</v>
+        <v>78.72</v>
       </c>
       <c r="H73" s="1">
-        <v>85.51</v>
+        <v>78.53</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
       </c>
       <c r="J73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>12</v>
       </c>
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
       <c r="C74" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D74" s="2">
-        <v>208665</v>
+        <v>78189</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F74" s="1">
-        <v>91.05</v>
+        <v>84.57</v>
       </c>
       <c r="G74" s="1">
-        <v>91.45</v>
+        <v>84.97</v>
       </c>
       <c r="H74" s="1">
-        <v>91.26</v>
+        <v>84.78</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
       </c>
       <c r="J74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>12</v>
       </c>
+      <c r="B75" t="s">
+        <v>210</v>
+      </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D75" s="2">
-        <v>208664</v>
+        <v>78189</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>154</v>
       </c>
       <c r="F75" s="1">
-        <v>95.74</v>
+        <v>84.57</v>
       </c>
       <c r="G75" s="1">
-        <v>96.14</v>
+        <v>84.97</v>
       </c>
       <c r="H75" s="1">
-        <v>95.96</v>
+        <v>84.78</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
       </c>
       <c r="J75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>12</v>
       </c>
+      <c r="B76" t="s">
+        <v>145</v>
+      </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2">
-        <v>81827</v>
+        <v>78528</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>155</v>
       </c>
       <c r="F76" s="1">
-        <v>100.68</v>
+        <v>93.46</v>
       </c>
       <c r="G76" s="1">
-        <v>101.48</v>
+        <v>93.86</v>
       </c>
       <c r="H76" s="1">
-        <v>100.9</v>
+        <v>93.67</v>
       </c>
       <c r="I76" t="b">
         <v>0</v>
       </c>
       <c r="J76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>12</v>
       </c>
+      <c r="B77" t="s">
+        <v>209</v>
+      </c>
       <c r="C77" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2">
-        <v>78179</v>
+        <v>78528</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F77" s="1">
-        <v>111.17</v>
+        <v>93.46</v>
       </c>
       <c r="G77" s="1">
-        <v>111.57</v>
+        <v>93.86</v>
       </c>
       <c r="H77" s="1">
-        <v>111.38</v>
+        <v>93.67</v>
       </c>
       <c r="I77" t="b">
         <v>0</v>
       </c>
       <c r="J77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>12</v>
       </c>
+      <c r="B78" t="s">
+        <v>146</v>
+      </c>
       <c r="C78" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2">
-        <v>208675</v>
+        <v>208677</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F78" s="1">
-        <v>119.68</v>
+        <v>100.16</v>
       </c>
       <c r="G78" s="1">
-        <v>120.08</v>
+        <v>100.56</v>
       </c>
       <c r="H78" s="1">
-        <v>119.89</v>
+        <v>100.37</v>
       </c>
       <c r="I78" t="b">
         <v>0</v>
       </c>
       <c r="J78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>12</v>
       </c>
+      <c r="B79" t="s">
+        <v>208</v>
+      </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2">
-        <v>203041</v>
+        <v>208677</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F79" s="1">
-        <v>122.07</v>
+        <v>100.16</v>
       </c>
       <c r="G79" s="1">
-        <v>122.47</v>
+        <v>100.56</v>
       </c>
       <c r="H79" s="1">
-        <v>122.28</v>
+        <v>100.37</v>
       </c>
       <c r="I79" t="b">
         <v>0</v>
       </c>
       <c r="J79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>12</v>
       </c>
+      <c r="B80" t="s">
+        <v>147</v>
+      </c>
       <c r="C80" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2">
-        <v>208679</v>
+        <v>78526</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" s="1">
-        <v>135.83000000000001</v>
+        <v>107.9</v>
       </c>
       <c r="G80" s="1">
-        <v>136.22999999999999</v>
+        <v>108.3</v>
       </c>
       <c r="H80" s="1">
-        <v>136.04</v>
+        <v>108.11</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
       </c>
       <c r="J80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>12</v>
       </c>
+      <c r="B81" t="s">
+        <v>207</v>
+      </c>
       <c r="C81" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2">
-        <v>208670</v>
+        <v>78526</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F81" s="1">
-        <v>139.72</v>
+        <v>107.9</v>
       </c>
       <c r="G81" s="1">
-        <v>140.12</v>
+        <v>108.3</v>
       </c>
       <c r="H81" s="1">
-        <v>139.93</v>
+        <v>108.11</v>
       </c>
       <c r="I81" t="b">
         <v>0</v>
       </c>
       <c r="J81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>12</v>
       </c>
+      <c r="B82" t="s">
+        <v>148</v>
+      </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2">
-        <v>82210</v>
+        <v>208672</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>8</v>
+        <v>158</v>
+      </c>
+      <c r="F82" s="1">
+        <v>113.75</v>
+      </c>
+      <c r="G82" s="1">
+        <v>114.15</v>
       </c>
       <c r="H82" s="1">
-        <v>15</v>
+        <v>113.97</v>
       </c>
       <c r="I82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -3407,25 +3761,25 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E83" s="3">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D83" s="2">
+        <v>208672</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F83" s="1">
-        <v>60.77</v>
+        <v>113.75</v>
       </c>
       <c r="G83" s="1">
-        <v>61.17</v>
+        <v>114.15</v>
       </c>
       <c r="H83" s="1">
-        <v>60.84</v>
+        <v>113.97</v>
       </c>
       <c r="I83" t="b">
         <v>0</v>
@@ -3439,25 +3793,25 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E84" s="3">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D84" s="2">
+        <v>82139</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F84" s="1">
-        <v>62.89</v>
+        <v>122.55</v>
       </c>
       <c r="G84" s="1">
-        <v>63.29</v>
+        <v>122.95</v>
       </c>
       <c r="H84" s="1">
-        <v>62.96</v>
+        <v>122.76</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
@@ -3471,25 +3825,25 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E85" s="3">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D85" s="2">
+        <v>82139</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F85" s="1">
-        <v>66.66</v>
+        <v>122.55</v>
       </c>
       <c r="G85" s="1">
-        <v>67.06</v>
+        <v>122.95</v>
       </c>
       <c r="H85" s="1">
-        <v>66.73</v>
+        <v>122.76</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
@@ -3503,25 +3857,25 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
+      </c>
+      <c r="D86" s="2">
+        <v>208668</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F86" s="1">
-        <v>73.72</v>
+        <v>129.85</v>
       </c>
       <c r="G86" s="1">
-        <v>74.12</v>
+        <v>130.25</v>
       </c>
       <c r="H86" s="1">
-        <v>73.790000000000006</v>
+        <v>130.07</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
@@ -3535,25 +3889,25 @@
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D87" s="2">
+        <v>208668</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F87" s="1">
-        <v>91.28</v>
+        <v>129.85</v>
       </c>
       <c r="G87" s="1">
-        <v>91.68</v>
+        <v>130.25</v>
       </c>
       <c r="H87" s="1">
-        <v>91.35</v>
+        <v>130.07</v>
       </c>
       <c r="I87" t="b">
         <v>0</v>
@@ -3567,28 +3921,25 @@
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="D88" s="2">
+        <v>82209</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F88" s="1">
-        <v>104.83</v>
-      </c>
-      <c r="G88" s="1">
-        <v>105.23</v>
-      </c>
-      <c r="H88" s="1">
-        <v>104.9</v>
+        <v>16</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="b">
         <v>1</v>
@@ -3599,28 +3950,25 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>54</v>
+        <v>14</v>
+      </c>
+      <c r="D89" s="2">
+        <v>82209</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F89" s="1">
-        <v>108.8</v>
-      </c>
-      <c r="G89" s="1">
-        <v>109.2</v>
-      </c>
-      <c r="H89" s="1">
-        <v>108.87</v>
+        <v>16</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="b">
         <v>1</v>
@@ -3631,25 +3979,25 @@
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>240</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>156</v>
+        <v>44</v>
+      </c>
+      <c r="D90" s="2">
+        <v>208660</v>
+      </c>
+      <c r="E90" s="3">
+        <v>14</v>
       </c>
       <c r="F90" s="1">
-        <v>110.76</v>
+        <v>87.17</v>
       </c>
       <c r="G90" s="1">
-        <v>111.16</v>
+        <v>87.57</v>
       </c>
       <c r="H90" s="1">
-        <v>110.83</v>
+        <v>87.38</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -3663,25 +4011,25 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="C91" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91" s="2">
+        <v>208652</v>
+      </c>
+      <c r="E91" s="3">
         <v>13</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="F91" s="1">
-        <v>112.64</v>
+        <v>88.87</v>
       </c>
       <c r="G91" s="1">
-        <v>113.04</v>
+        <v>89.27</v>
       </c>
       <c r="H91" s="1">
-        <v>112.71</v>
+        <v>89.09</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
@@ -3695,25 +4043,25 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>158</v>
+        <v>44</v>
+      </c>
+      <c r="D92" s="2">
+        <v>81839</v>
+      </c>
+      <c r="E92" s="3">
+        <v>12</v>
       </c>
       <c r="F92" s="1">
-        <v>116.64</v>
+        <v>90.04</v>
       </c>
       <c r="G92" s="1">
-        <v>117.04</v>
+        <v>90.44</v>
       </c>
       <c r="H92" s="1">
-        <v>116.71</v>
+        <v>90.25</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
@@ -3727,25 +4075,25 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>159</v>
+        <v>44</v>
+      </c>
+      <c r="D93" s="2">
+        <v>208655</v>
+      </c>
+      <c r="E93" s="3">
+        <v>11</v>
       </c>
       <c r="F93" s="1">
-        <v>122.86</v>
+        <v>93.04</v>
       </c>
       <c r="G93" s="1">
-        <v>123.26</v>
+        <v>93.44</v>
       </c>
       <c r="H93" s="1">
-        <v>122.93</v>
+        <v>93.25</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
@@ -3759,25 +4107,25 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>151</v>
+        <v>44</v>
+      </c>
+      <c r="D94" s="2">
+        <v>77752</v>
+      </c>
+      <c r="E94" s="3">
+        <v>10</v>
       </c>
       <c r="F94" s="1">
-        <v>125.56</v>
+        <v>94.57</v>
       </c>
       <c r="G94" s="1">
-        <v>125.96</v>
+        <v>94.97</v>
       </c>
       <c r="H94" s="1">
-        <v>125.63</v>
+        <v>94.79</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
@@ -3791,25 +4139,28 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D95" s="2">
-        <v>77642</v>
+        <v>78183</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>8</v>
+        <v>152</v>
+      </c>
+      <c r="F95" s="1">
+        <v>96.99</v>
+      </c>
+      <c r="G95" s="1">
+        <v>97.39</v>
+      </c>
+      <c r="H95" s="1">
+        <v>97.21</v>
       </c>
       <c r="I95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="b">
         <v>1</v>
@@ -3820,28 +4171,31 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D96" s="2">
-        <v>77642</v>
+        <v>208654</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>8</v>
+        <v>153</v>
+      </c>
+      <c r="F96" s="1">
+        <v>101.23</v>
+      </c>
+      <c r="G96" s="1">
+        <v>101.63</v>
+      </c>
+      <c r="H96" s="1">
+        <v>101.44</v>
       </c>
       <c r="I96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -3849,25 +4203,28 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>73</v>
+        <v>233</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="D97" s="2">
+        <v>81833</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>8</v>
+        <v>154</v>
+      </c>
+      <c r="F97" s="1">
+        <v>104.35</v>
+      </c>
+      <c r="G97" s="1">
+        <v>104.75</v>
+      </c>
+      <c r="H97" s="1">
+        <v>104.56</v>
       </c>
       <c r="I97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="b">
         <v>1</v>
@@ -3878,25 +4235,25 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E98" s="3">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="D98" s="2">
+        <v>82214</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="F98" s="1">
-        <v>30.56</v>
+        <v>106.77</v>
       </c>
       <c r="G98" s="1">
-        <v>30.96</v>
+        <v>107.17</v>
       </c>
       <c r="H98" s="1">
-        <v>30.63</v>
+        <v>106.99</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -3910,25 +4267,25 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E99" s="3">
-        <v>13</v>
+        <v>44</v>
+      </c>
+      <c r="D99" s="2">
+        <v>82142</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="F99" s="1">
-        <v>32.94</v>
+        <v>118.81</v>
       </c>
       <c r="G99" s="1">
-        <v>33.340000000000003</v>
+        <v>119.21</v>
       </c>
       <c r="H99" s="1">
-        <v>33.01</v>
+        <v>119.02</v>
       </c>
       <c r="I99" t="b">
         <v>0</v>
@@ -3942,25 +4299,25 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E100" s="3">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="D100" s="2">
+        <v>78534</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F100" s="1">
-        <v>42.14</v>
+        <v>125.43</v>
       </c>
       <c r="G100" s="1">
-        <v>42.54</v>
+        <v>125.83</v>
       </c>
       <c r="H100" s="1">
-        <v>42.24</v>
+        <v>125.63</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
@@ -3974,25 +4331,25 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E101" s="3">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="D101" s="2">
+        <v>208671</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F101" s="1">
-        <v>46.77</v>
+        <v>129.53</v>
       </c>
       <c r="G101" s="1">
-        <v>47.17</v>
+        <v>129.93</v>
       </c>
       <c r="H101" s="1">
-        <v>46.87</v>
+        <v>129.74</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
@@ -4006,25 +4363,25 @@
         <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E102" s="3">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="D102" s="2">
+        <v>78532</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="F102" s="1">
-        <v>62.56</v>
+        <v>132.94</v>
       </c>
       <c r="G102" s="1">
-        <v>62.96</v>
+        <v>133.34</v>
       </c>
       <c r="H102" s="1">
-        <v>62.66</v>
+        <v>133.13999999999999</v>
       </c>
       <c r="I102" t="b">
         <v>0</v>
@@ -4038,25 +4395,25 @@
         <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D103" s="2">
-        <v>208649</v>
+        <v>78527</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F103" s="1">
-        <v>76.53</v>
+        <v>138.31</v>
       </c>
       <c r="G103" s="1">
-        <v>76.930000000000007</v>
+        <v>138.71</v>
       </c>
       <c r="H103" s="1">
-        <v>76.739999999999995</v>
+        <v>138.52000000000001</v>
       </c>
       <c r="I103" t="b">
         <v>0</v>
@@ -4070,28 +4427,28 @@
         <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D104" s="2">
-        <v>208658</v>
+        <v>203042</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F104" s="1">
-        <v>95.43</v>
-      </c>
-      <c r="G104" s="1">
-        <v>95.83</v>
+        <v>16</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H104" s="1">
-        <v>95.64</v>
+        <v>15</v>
       </c>
       <c r="I104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="b">
         <v>1</v>
@@ -4102,28 +4459,28 @@
         <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D105" s="2">
-        <v>203031</v>
+        <v>213650</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F105" s="1">
-        <v>99.39</v>
-      </c>
-      <c r="G105" s="1">
-        <v>99.79</v>
+        <v>9</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H105" s="1">
-        <v>99.6</v>
+        <v>0</v>
       </c>
       <c r="I105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="b">
         <v>1</v>
@@ -4134,25 +4491,25 @@
         <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D106" s="2">
-        <v>208672</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>155</v>
+        <v>77658</v>
+      </c>
+      <c r="E106" s="3">
+        <v>20</v>
       </c>
       <c r="F106" s="1">
-        <v>110.79</v>
+        <v>24.2</v>
       </c>
       <c r="G106" s="1">
-        <v>111.19</v>
+        <v>24.6</v>
       </c>
       <c r="H106" s="1">
-        <v>111</v>
+        <v>29.4</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
@@ -4166,25 +4523,25 @@
         <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D107" s="2">
-        <v>208676</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>156</v>
+        <v>77657</v>
+      </c>
+      <c r="E107" s="3">
+        <v>19</v>
       </c>
       <c r="F107" s="1">
-        <v>113.75</v>
+        <v>29.71</v>
       </c>
       <c r="G107" s="1">
-        <v>114.15</v>
+        <v>30.11</v>
       </c>
       <c r="H107" s="1">
-        <v>113.96</v>
+        <v>29.92</v>
       </c>
       <c r="I107" t="b">
         <v>0</v>
@@ -4198,25 +4555,25 @@
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D108" s="2">
-        <v>208674</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>157</v>
+        <v>77656</v>
+      </c>
+      <c r="E108" s="3">
+        <v>18</v>
       </c>
       <c r="F108" s="1">
-        <v>117.34</v>
+        <v>33.53</v>
       </c>
       <c r="G108" s="1">
-        <v>117.74</v>
+        <v>33.93</v>
       </c>
       <c r="H108" s="1">
-        <v>117.55</v>
+        <v>33.74</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
@@ -4230,25 +4587,25 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D109" s="2">
-        <v>208677</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>158</v>
+        <v>77654</v>
+      </c>
+      <c r="E109" s="3">
+        <v>17</v>
       </c>
       <c r="F109" s="1">
-        <v>120.62</v>
+        <v>35.61</v>
       </c>
       <c r="G109" s="1">
-        <v>121.02</v>
+        <v>36.01</v>
       </c>
       <c r="H109" s="1">
-        <v>120.83</v>
+        <v>35.82</v>
       </c>
       <c r="I109" t="b">
         <v>0</v>
@@ -4262,25 +4619,25 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D110" s="2">
-        <v>208668</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>159</v>
+        <v>81535</v>
+      </c>
+      <c r="E110" s="3">
+        <v>16</v>
       </c>
       <c r="F110" s="1">
-        <v>124.69</v>
+        <v>45.11</v>
       </c>
       <c r="G110" s="1">
-        <v>125.09</v>
+        <v>45.51</v>
       </c>
       <c r="H110" s="1">
-        <v>124.9</v>
+        <v>45.32</v>
       </c>
       <c r="I110" t="b">
         <v>0</v>
@@ -4294,25 +4651,25 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D111" s="2">
-        <v>208670</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>151</v>
+        <v>78078</v>
+      </c>
+      <c r="E111" s="3">
+        <v>15</v>
       </c>
       <c r="F111" s="1">
-        <v>126.87</v>
+        <v>47.11</v>
       </c>
       <c r="G111" s="1">
-        <v>127.27</v>
+        <v>47.51</v>
       </c>
       <c r="H111" s="1">
-        <v>127.08</v>
+        <v>47.32</v>
       </c>
       <c r="I111" t="b">
         <v>0</v>
@@ -4326,25 +4683,25 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="C112" t="s">
-        <v>44</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
+      </c>
+      <c r="D112" s="2">
+        <v>213562</v>
       </c>
       <c r="E112" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F112" s="1">
-        <v>87.17</v>
+        <v>54.19</v>
       </c>
       <c r="G112" s="1">
-        <v>87.57</v>
+        <v>54.59</v>
       </c>
       <c r="H112" s="1">
-        <v>87.29</v>
+        <v>54.4</v>
       </c>
       <c r="I112" t="b">
         <v>0</v>
@@ -4358,25 +4715,25 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="C113" t="s">
-        <v>44</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>96</v>
+        <v>45</v>
+      </c>
+      <c r="D113" s="2">
+        <v>78077</v>
       </c>
       <c r="E113" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F113" s="1">
-        <v>90.04</v>
+        <v>63.66</v>
       </c>
       <c r="G113" s="1">
-        <v>90.44</v>
+        <v>64.06</v>
       </c>
       <c r="H113" s="1">
-        <v>90.16</v>
+        <v>63.87</v>
       </c>
       <c r="I113" t="b">
         <v>0</v>
@@ -4390,25 +4747,25 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="C114" t="s">
-        <v>44</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
+      </c>
+      <c r="D114" s="2">
+        <v>81845</v>
       </c>
       <c r="E114" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F114" s="1">
-        <v>93.04</v>
+        <v>71.36</v>
       </c>
       <c r="G114" s="1">
-        <v>93.44</v>
+        <v>71.760000000000005</v>
       </c>
       <c r="H114" s="1">
-        <v>93.16</v>
+        <v>71.58</v>
       </c>
       <c r="I114" t="b">
         <v>0</v>
@@ -4422,25 +4779,25 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="C115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D115" s="2">
-        <v>208664</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>152</v>
+        <v>208666</v>
+      </c>
+      <c r="E115" s="3">
+        <v>11</v>
       </c>
       <c r="F115" s="1">
-        <v>96.99</v>
+        <v>73.39</v>
       </c>
       <c r="G115" s="1">
-        <v>97.39</v>
+        <v>73.790000000000006</v>
       </c>
       <c r="H115" s="1">
-        <v>97.19</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="I115" t="b">
         <v>0</v>
@@ -4454,25 +4811,25 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="C116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D116" s="2">
-        <v>208661</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>153</v>
+        <v>208667</v>
+      </c>
+      <c r="E116" s="3">
+        <v>10</v>
       </c>
       <c r="F116" s="1">
-        <v>105.23</v>
+        <v>76.569999999999993</v>
       </c>
       <c r="G116" s="1">
-        <v>105.63</v>
+        <v>76.97</v>
       </c>
       <c r="H116" s="1">
-        <v>105.44</v>
+        <v>76.78</v>
       </c>
       <c r="I116" t="b">
         <v>0</v>
@@ -4486,25 +4843,25 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="C117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D117" s="2">
-        <v>208653</v>
+        <v>208657</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F117" s="1">
-        <v>107.28</v>
+        <v>85.3</v>
       </c>
       <c r="G117" s="1">
-        <v>107.68</v>
+        <v>85.7</v>
       </c>
       <c r="H117" s="1">
-        <v>107.49</v>
+        <v>85.51</v>
       </c>
       <c r="I117" t="b">
         <v>0</v>
@@ -4518,25 +4875,25 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="C118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D118" s="2">
-        <v>208678</v>
+        <v>208665</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F118" s="1">
-        <v>111.26</v>
+        <v>91.05</v>
       </c>
       <c r="G118" s="1">
-        <v>111.66</v>
+        <v>91.45</v>
       </c>
       <c r="H118" s="1">
-        <v>111.47</v>
+        <v>91.26</v>
       </c>
       <c r="I118" t="b">
         <v>0</v>
@@ -4550,25 +4907,25 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="C119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D119" s="2">
-        <v>208673</v>
+        <v>208664</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F119" s="1">
-        <v>115.83</v>
+        <v>95.74</v>
       </c>
       <c r="G119" s="1">
-        <v>116.23</v>
+        <v>96.14</v>
       </c>
       <c r="H119" s="1">
-        <v>116.04</v>
+        <v>95.96</v>
       </c>
       <c r="I119" t="b">
         <v>0</v>
@@ -4582,25 +4939,25 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="C120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D120" s="2">
-        <v>208671</v>
+        <v>81827</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F120" s="1">
-        <v>125.43</v>
+        <v>100.68</v>
       </c>
       <c r="G120" s="1">
-        <v>125.83</v>
+        <v>101.48</v>
       </c>
       <c r="H120" s="1">
-        <v>125.64</v>
+        <v>100.9</v>
       </c>
       <c r="I120" t="b">
         <v>0</v>
@@ -4614,25 +4971,25 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="C121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D121" s="2">
-        <v>208679</v>
+        <v>78179</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F121" s="1">
-        <v>134.11000000000001</v>
+        <v>111.17</v>
       </c>
       <c r="G121" s="1">
-        <v>134.51</v>
+        <v>111.57</v>
       </c>
       <c r="H121" s="1">
-        <v>134.32</v>
+        <v>111.38</v>
       </c>
       <c r="I121" t="b">
         <v>0</v>
@@ -4646,25 +5003,25 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="C122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D122" s="2">
-        <v>78489</v>
+        <v>208675</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F122" s="1">
-        <v>137.25</v>
+        <v>119.68</v>
       </c>
       <c r="G122" s="1">
-        <v>137.65</v>
+        <v>120.08</v>
       </c>
       <c r="H122" s="1">
-        <v>137.47999999999999</v>
+        <v>119.89</v>
       </c>
       <c r="I122" t="b">
         <v>0</v>
@@ -4678,25 +5035,25 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="C123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D123" s="2">
-        <v>208675</v>
+        <v>203041</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F123" s="1">
-        <v>138.47</v>
+        <v>122.07</v>
       </c>
       <c r="G123" s="1">
-        <v>138.87</v>
+        <v>122.47</v>
       </c>
       <c r="H123" s="1">
-        <v>138.68</v>
+        <v>122.28</v>
       </c>
       <c r="I123" t="b">
         <v>0</v>
@@ -4710,28 +5067,28 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="C124" t="s">
-        <v>44</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>98</v>
+        <v>45</v>
+      </c>
+      <c r="D124" s="2">
+        <v>208679</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>8</v>
+        <v>159</v>
+      </c>
+      <c r="F124" s="1">
+        <v>135.83000000000001</v>
+      </c>
+      <c r="G124" s="1">
+        <v>136.22999999999999</v>
       </c>
       <c r="H124" s="1">
-        <v>25</v>
+        <v>136.04</v>
       </c>
       <c r="I124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="b">
         <v>1</v>
@@ -4742,25 +5099,25 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="C125" t="s">
         <v>45</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E125" s="3">
-        <v>12</v>
+      <c r="D125" s="2">
+        <v>208670</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F125" s="1">
-        <v>34.81</v>
+        <v>139.72</v>
       </c>
       <c r="G125" s="1">
-        <v>35.21</v>
+        <v>140.12</v>
       </c>
       <c r="H125" s="1">
-        <v>34.89</v>
+        <v>139.93</v>
       </c>
       <c r="I125" t="b">
         <v>0</v>
@@ -4774,28 +5131,28 @@
         <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="C126" t="s">
         <v>45</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E126" s="3">
-        <v>11</v>
-      </c>
-      <c r="F126" s="1">
-        <v>51.41</v>
-      </c>
-      <c r="G126" s="1">
-        <v>51.81</v>
+      <c r="D126" s="2">
+        <v>82210</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H126" s="1">
-        <v>51.49</v>
+        <v>15</v>
       </c>
       <c r="I126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="b">
         <v>1</v>
@@ -4806,31 +5163,31 @@
         <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="C127" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="E127" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F127" s="1">
-        <v>57.64</v>
+        <v>60.77</v>
       </c>
       <c r="G127" s="1">
-        <v>58.04</v>
+        <v>61.17</v>
       </c>
       <c r="H127" s="1">
-        <v>57.7</v>
+        <v>60.84</v>
       </c>
       <c r="I127" t="b">
         <v>0</v>
       </c>
       <c r="J127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -4838,31 +5195,31 @@
         <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="C128" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>152</v>
+        <v>49</v>
+      </c>
+      <c r="E128" s="3">
+        <v>11</v>
       </c>
       <c r="F128" s="1">
-        <v>63.28</v>
+        <v>62.89</v>
       </c>
       <c r="G128" s="1">
-        <v>63.68</v>
+        <v>63.29</v>
       </c>
       <c r="H128" s="1">
-        <v>63.34</v>
+        <v>62.96</v>
       </c>
       <c r="I128" t="b">
         <v>0</v>
       </c>
       <c r="J128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -4870,31 +5227,31 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="C129" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>153</v>
+        <v>50</v>
+      </c>
+      <c r="E129" s="3">
+        <v>10</v>
       </c>
       <c r="F129" s="1">
-        <v>72.8</v>
+        <v>66.66</v>
       </c>
       <c r="G129" s="1">
-        <v>73.2</v>
+        <v>67.06</v>
       </c>
       <c r="H129" s="1">
-        <v>72.86</v>
+        <v>66.73</v>
       </c>
       <c r="I129" t="b">
         <v>0</v>
       </c>
       <c r="J129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -4902,31 +5259,31 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="C130" t="s">
-        <v>45</v>
-      </c>
-      <c r="D130" s="2">
-        <v>81841</v>
+        <v>13</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F130" s="1">
-        <v>105.98</v>
+        <v>73.72</v>
       </c>
       <c r="G130" s="1">
-        <v>106.38</v>
+        <v>74.12</v>
       </c>
       <c r="H130" s="1">
-        <v>106.19</v>
+        <v>73.790000000000006</v>
       </c>
       <c r="I130" t="b">
         <v>0</v>
       </c>
       <c r="J130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -4934,31 +5291,31 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="C131" t="s">
-        <v>45</v>
-      </c>
-      <c r="D131" s="2">
-        <v>81811</v>
+        <v>13</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F131" s="1">
-        <v>114.5</v>
+        <v>91.28</v>
       </c>
       <c r="G131" s="1">
-        <v>114.9</v>
+        <v>91.68</v>
       </c>
       <c r="H131" s="1">
-        <v>114.71</v>
+        <v>91.35</v>
       </c>
       <c r="I131" t="b">
         <v>0</v>
       </c>
       <c r="J131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -4966,31 +5323,31 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="C132" t="s">
-        <v>45</v>
-      </c>
-      <c r="D132" s="2">
-        <v>78534</v>
+        <v>13</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F132" s="1">
-        <v>119.68</v>
+        <v>104.83</v>
       </c>
       <c r="G132" s="1">
-        <v>120.08</v>
+        <v>105.23</v>
       </c>
       <c r="H132" s="1">
-        <v>119.89</v>
+        <v>104.9</v>
       </c>
       <c r="I132" t="b">
         <v>0</v>
       </c>
       <c r="J132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -4998,31 +5355,31 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C133" t="s">
-        <v>45</v>
-      </c>
-      <c r="D133" s="2">
-        <v>78490</v>
+        <v>13</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F133" s="1">
-        <v>120.98</v>
+        <v>108.8</v>
       </c>
       <c r="G133" s="1">
-        <v>121.38</v>
+        <v>109.2</v>
       </c>
       <c r="H133" s="1">
-        <v>121.2</v>
+        <v>108.87</v>
       </c>
       <c r="I133" t="b">
         <v>0</v>
       </c>
       <c r="J133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -5030,31 +5387,31 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="C134" t="s">
-        <v>45</v>
-      </c>
-      <c r="D134" s="2">
-        <v>78488</v>
+        <v>13</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F134" s="1">
-        <v>123.73</v>
+        <v>110.76</v>
       </c>
       <c r="G134" s="1">
-        <v>124.13</v>
+        <v>111.16</v>
       </c>
       <c r="H134" s="1">
-        <v>123.94</v>
+        <v>110.83</v>
       </c>
       <c r="I134" t="b">
         <v>0</v>
       </c>
       <c r="J134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -5062,31 +5419,31 @@
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="C135" t="s">
-        <v>45</v>
-      </c>
-      <c r="D135" s="2">
-        <v>208669</v>
+        <v>13</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F135" s="1">
-        <v>128.53</v>
+        <v>112.64</v>
       </c>
       <c r="G135" s="1">
-        <v>128.93</v>
+        <v>113.04</v>
       </c>
       <c r="H135" s="1">
-        <v>128.75</v>
+        <v>112.71</v>
       </c>
       <c r="I135" t="b">
         <v>0</v>
       </c>
       <c r="J135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -5094,31 +5451,31 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="C136" t="s">
-        <v>45</v>
-      </c>
-      <c r="D136" s="2">
-        <v>78533</v>
+        <v>13</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F136" s="1">
-        <v>140.9</v>
+        <v>116.64</v>
       </c>
       <c r="G136" s="1">
-        <v>141.30000000000001</v>
+        <v>117.04</v>
       </c>
       <c r="H136" s="1">
-        <v>141.11000000000001</v>
+        <v>116.71</v>
       </c>
       <c r="I136" t="b">
         <v>0</v>
       </c>
       <c r="J136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -5126,31 +5483,31 @@
         <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="C137" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>8</v>
+        <v>159</v>
+      </c>
+      <c r="F137" s="1">
+        <v>122.86</v>
+      </c>
+      <c r="G137" s="1">
+        <v>123.26</v>
       </c>
       <c r="H137" s="1">
-        <v>20</v>
+        <v>122.93</v>
       </c>
       <c r="I137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -5158,28 +5515,1427 @@
         <v>12</v>
       </c>
       <c r="B138" t="s">
+        <v>67</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F138" s="1">
+        <v>125.56</v>
+      </c>
+      <c r="G138" s="1">
+        <v>125.96</v>
+      </c>
+      <c r="H138" s="1">
+        <v>125.63</v>
+      </c>
+      <c r="I138" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
+        <v>74</v>
+      </c>
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="2">
+        <v>77642</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>75</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="2">
+        <v>77642</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>73</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>88</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E142" s="3">
+        <v>14</v>
+      </c>
+      <c r="F142" s="1">
+        <v>30.56</v>
+      </c>
+      <c r="G142" s="1">
+        <v>30.96</v>
+      </c>
+      <c r="H142" s="1">
+        <v>30.63</v>
+      </c>
+      <c r="I142" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" t="s">
+        <v>89</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E143" s="3">
+        <v>13</v>
+      </c>
+      <c r="F143" s="1">
+        <v>32.94</v>
+      </c>
+      <c r="G143" s="1">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="H143" s="1">
+        <v>33.01</v>
+      </c>
+      <c r="I143" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>90</v>
+      </c>
+      <c r="C144" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E144" s="3">
+        <v>12</v>
+      </c>
+      <c r="F144" s="1">
+        <v>42.14</v>
+      </c>
+      <c r="G144" s="1">
+        <v>42.54</v>
+      </c>
+      <c r="H144" s="1">
+        <v>42.24</v>
+      </c>
+      <c r="I144" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>91</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E145" s="3">
+        <v>11</v>
+      </c>
+      <c r="F145" s="1">
+        <v>46.77</v>
+      </c>
+      <c r="G145" s="1">
+        <v>47.17</v>
+      </c>
+      <c r="H145" s="1">
+        <v>46.87</v>
+      </c>
+      <c r="I145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>92</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E146" s="3">
+        <v>10</v>
+      </c>
+      <c r="F146" s="1">
+        <v>62.56</v>
+      </c>
+      <c r="G146" s="1">
+        <v>62.96</v>
+      </c>
+      <c r="H146" s="1">
+        <v>62.66</v>
+      </c>
+      <c r="I146" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
+        <v>93</v>
+      </c>
+      <c r="C147" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="2">
+        <v>208649</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F147" s="1">
+        <v>76.53</v>
+      </c>
+      <c r="G147" s="1">
+        <v>76.930000000000007</v>
+      </c>
+      <c r="H147" s="1">
+        <v>76.739999999999995</v>
+      </c>
+      <c r="I147" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" t="s">
+        <v>94</v>
+      </c>
+      <c r="C148" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="2">
+        <v>208658</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F148" s="1">
+        <v>95.43</v>
+      </c>
+      <c r="G148" s="1">
+        <v>95.83</v>
+      </c>
+      <c r="H148" s="1">
+        <v>95.64</v>
+      </c>
+      <c r="I148" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" t="s">
+        <v>81</v>
+      </c>
+      <c r="C149" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="2">
+        <v>203031</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F149" s="1">
+        <v>99.39</v>
+      </c>
+      <c r="G149" s="1">
+        <v>99.79</v>
+      </c>
+      <c r="H149" s="1">
+        <v>99.6</v>
+      </c>
+      <c r="I149" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" t="s">
+        <v>82</v>
+      </c>
+      <c r="C150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="2">
+        <v>208672</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F150" s="1">
+        <v>110.79</v>
+      </c>
+      <c r="G150" s="1">
+        <v>111.19</v>
+      </c>
+      <c r="H150" s="1">
+        <v>111</v>
+      </c>
+      <c r="I150" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" t="s">
+        <v>83</v>
+      </c>
+      <c r="C151" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="2">
+        <v>208676</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F151" s="1">
+        <v>113.75</v>
+      </c>
+      <c r="G151" s="1">
+        <v>114.15</v>
+      </c>
+      <c r="H151" s="1">
+        <v>113.96</v>
+      </c>
+      <c r="I151" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" t="s">
+        <v>84</v>
+      </c>
+      <c r="C152" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="2">
+        <v>208674</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F152" s="1">
+        <v>117.34</v>
+      </c>
+      <c r="G152" s="1">
+        <v>117.74</v>
+      </c>
+      <c r="H152" s="1">
+        <v>117.55</v>
+      </c>
+      <c r="I152" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>85</v>
+      </c>
+      <c r="C153" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="2">
+        <v>208677</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F153" s="1">
+        <v>120.62</v>
+      </c>
+      <c r="G153" s="1">
+        <v>121.02</v>
+      </c>
+      <c r="H153" s="1">
+        <v>120.83</v>
+      </c>
+      <c r="I153" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>86</v>
+      </c>
+      <c r="C154" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="2">
+        <v>208668</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F154" s="1">
+        <v>124.69</v>
+      </c>
+      <c r="G154" s="1">
+        <v>125.09</v>
+      </c>
+      <c r="H154" s="1">
+        <v>124.9</v>
+      </c>
+      <c r="I154" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
+        <v>87</v>
+      </c>
+      <c r="C155" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="2">
+        <v>208670</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F155" s="1">
+        <v>126.87</v>
+      </c>
+      <c r="G155" s="1">
+        <v>127.27</v>
+      </c>
+      <c r="H155" s="1">
+        <v>127.08</v>
+      </c>
+      <c r="I155" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>107</v>
+      </c>
+      <c r="C156" t="s">
+        <v>44</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E156" s="3">
+        <v>12</v>
+      </c>
+      <c r="F156" s="1">
+        <v>87.17</v>
+      </c>
+      <c r="G156" s="1">
+        <v>87.57</v>
+      </c>
+      <c r="H156" s="1">
+        <v>87.29</v>
+      </c>
+      <c r="I156" t="b">
+        <v>0</v>
+      </c>
+      <c r="J156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" t="s">
+        <v>108</v>
+      </c>
+      <c r="C157" t="s">
+        <v>44</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E157" s="3">
+        <v>11</v>
+      </c>
+      <c r="F157" s="1">
+        <v>90.04</v>
+      </c>
+      <c r="G157" s="1">
+        <v>90.44</v>
+      </c>
+      <c r="H157" s="1">
+        <v>90.16</v>
+      </c>
+      <c r="I157" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" t="s">
+        <v>109</v>
+      </c>
+      <c r="C158" t="s">
+        <v>44</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E158" s="3">
+        <v>10</v>
+      </c>
+      <c r="F158" s="1">
+        <v>93.04</v>
+      </c>
+      <c r="G158" s="1">
+        <v>93.44</v>
+      </c>
+      <c r="H158" s="1">
+        <v>93.16</v>
+      </c>
+      <c r="I158" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" t="s">
+        <v>110</v>
+      </c>
+      <c r="C159" t="s">
+        <v>44</v>
+      </c>
+      <c r="D159" s="2">
+        <v>208664</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F159" s="1">
+        <v>96.99</v>
+      </c>
+      <c r="G159" s="1">
+        <v>97.39</v>
+      </c>
+      <c r="H159" s="1">
+        <v>97.19</v>
+      </c>
+      <c r="I159" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" t="s">
+        <v>99</v>
+      </c>
+      <c r="C160" t="s">
+        <v>44</v>
+      </c>
+      <c r="D160" s="2">
+        <v>208661</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F160" s="1">
+        <v>105.23</v>
+      </c>
+      <c r="G160" s="1">
+        <v>105.63</v>
+      </c>
+      <c r="H160" s="1">
+        <v>105.44</v>
+      </c>
+      <c r="I160" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>100</v>
+      </c>
+      <c r="C161" t="s">
+        <v>44</v>
+      </c>
+      <c r="D161" s="2">
+        <v>208653</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F161" s="1">
+        <v>107.28</v>
+      </c>
+      <c r="G161" s="1">
+        <v>107.68</v>
+      </c>
+      <c r="H161" s="1">
+        <v>107.49</v>
+      </c>
+      <c r="I161" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" t="s">
+        <v>101</v>
+      </c>
+      <c r="C162" t="s">
+        <v>44</v>
+      </c>
+      <c r="D162" s="2">
+        <v>208678</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F162" s="1">
+        <v>111.26</v>
+      </c>
+      <c r="G162" s="1">
+        <v>111.66</v>
+      </c>
+      <c r="H162" s="1">
+        <v>111.47</v>
+      </c>
+      <c r="I162" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" t="s">
+        <v>104</v>
+      </c>
+      <c r="C163" t="s">
+        <v>44</v>
+      </c>
+      <c r="D163" s="2">
+        <v>208673</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F163" s="1">
+        <v>115.83</v>
+      </c>
+      <c r="G163" s="1">
+        <v>116.23</v>
+      </c>
+      <c r="H163" s="1">
+        <v>116.04</v>
+      </c>
+      <c r="I163" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" t="s">
+        <v>102</v>
+      </c>
+      <c r="C164" t="s">
+        <v>44</v>
+      </c>
+      <c r="D164" s="2">
+        <v>208671</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F164" s="1">
+        <v>125.43</v>
+      </c>
+      <c r="G164" s="1">
+        <v>125.83</v>
+      </c>
+      <c r="H164" s="1">
+        <v>125.64</v>
+      </c>
+      <c r="I164" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>103</v>
+      </c>
+      <c r="C165" t="s">
+        <v>44</v>
+      </c>
+      <c r="D165" s="2">
+        <v>208679</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F165" s="1">
+        <v>134.11000000000001</v>
+      </c>
+      <c r="G165" s="1">
+        <v>134.51</v>
+      </c>
+      <c r="H165" s="1">
+        <v>134.32</v>
+      </c>
+      <c r="I165" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" t="s">
+        <v>105</v>
+      </c>
+      <c r="C166" t="s">
+        <v>44</v>
+      </c>
+      <c r="D166" s="2">
+        <v>78489</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F166" s="1">
+        <v>137.25</v>
+      </c>
+      <c r="G166" s="1">
+        <v>137.65</v>
+      </c>
+      <c r="H166" s="1">
+        <v>137.47999999999999</v>
+      </c>
+      <c r="I166" t="b">
+        <v>0</v>
+      </c>
+      <c r="J166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" t="s">
+        <v>106</v>
+      </c>
+      <c r="C167" t="s">
+        <v>44</v>
+      </c>
+      <c r="D167" s="2">
+        <v>208675</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F167" s="1">
+        <v>138.47</v>
+      </c>
+      <c r="G167" s="1">
+        <v>138.87</v>
+      </c>
+      <c r="H167" s="1">
+        <v>138.68</v>
+      </c>
+      <c r="I167" t="b">
+        <v>0</v>
+      </c>
+      <c r="J167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" t="s">
+        <v>111</v>
+      </c>
+      <c r="C168" t="s">
+        <v>44</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" s="1">
+        <v>25</v>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" t="s">
+        <v>126</v>
+      </c>
+      <c r="C169" t="s">
+        <v>45</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E169" s="3">
+        <v>12</v>
+      </c>
+      <c r="F169" s="1">
+        <v>34.81</v>
+      </c>
+      <c r="G169" s="1">
+        <v>35.21</v>
+      </c>
+      <c r="H169" s="1">
+        <v>34.89</v>
+      </c>
+      <c r="I169" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" t="s">
+        <v>130</v>
+      </c>
+      <c r="C170" t="s">
+        <v>45</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E170" s="3">
+        <v>11</v>
+      </c>
+      <c r="F170" s="1">
+        <v>51.41</v>
+      </c>
+      <c r="G170" s="1">
+        <v>51.81</v>
+      </c>
+      <c r="H170" s="1">
+        <v>51.49</v>
+      </c>
+      <c r="I170" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" t="s">
+        <v>127</v>
+      </c>
+      <c r="C171" t="s">
+        <v>45</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E171" s="3">
+        <v>10</v>
+      </c>
+      <c r="F171" s="1">
+        <v>57.64</v>
+      </c>
+      <c r="G171" s="1">
+        <v>58.04</v>
+      </c>
+      <c r="H171" s="1">
+        <v>57.7</v>
+      </c>
+      <c r="I171" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" t="s">
+        <v>128</v>
+      </c>
+      <c r="C172" t="s">
+        <v>45</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F172" s="1">
+        <v>63.28</v>
+      </c>
+      <c r="G172" s="1">
+        <v>63.68</v>
+      </c>
+      <c r="H172" s="1">
+        <v>63.34</v>
+      </c>
+      <c r="I172" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" t="s">
+        <v>129</v>
+      </c>
+      <c r="C173" t="s">
+        <v>45</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F173" s="1">
+        <v>72.8</v>
+      </c>
+      <c r="G173" s="1">
+        <v>73.2</v>
+      </c>
+      <c r="H173" s="1">
+        <v>72.86</v>
+      </c>
+      <c r="I173" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" t="s">
+        <v>119</v>
+      </c>
+      <c r="C174" t="s">
+        <v>45</v>
+      </c>
+      <c r="D174" s="2">
+        <v>81841</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F174" s="1">
+        <v>105.98</v>
+      </c>
+      <c r="G174" s="1">
+        <v>106.38</v>
+      </c>
+      <c r="H174" s="1">
+        <v>106.19</v>
+      </c>
+      <c r="I174" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" t="s">
+        <v>124</v>
+      </c>
+      <c r="C175" t="s">
+        <v>45</v>
+      </c>
+      <c r="D175" s="2">
+        <v>81811</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F175" s="1">
+        <v>114.5</v>
+      </c>
+      <c r="G175" s="1">
+        <v>114.9</v>
+      </c>
+      <c r="H175" s="1">
+        <v>114.71</v>
+      </c>
+      <c r="I175" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" t="s">
+        <v>120</v>
+      </c>
+      <c r="C176" t="s">
+        <v>45</v>
+      </c>
+      <c r="D176" s="2">
+        <v>78534</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F176" s="1">
+        <v>119.68</v>
+      </c>
+      <c r="G176" s="1">
+        <v>120.08</v>
+      </c>
+      <c r="H176" s="1">
+        <v>119.89</v>
+      </c>
+      <c r="I176" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" t="s">
+        <v>121</v>
+      </c>
+      <c r="C177" t="s">
+        <v>45</v>
+      </c>
+      <c r="D177" s="2">
+        <v>78490</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F177" s="1">
+        <v>120.98</v>
+      </c>
+      <c r="G177" s="1">
+        <v>121.38</v>
+      </c>
+      <c r="H177" s="1">
+        <v>121.2</v>
+      </c>
+      <c r="I177" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" t="s">
+        <v>122</v>
+      </c>
+      <c r="C178" t="s">
+        <v>45</v>
+      </c>
+      <c r="D178" s="2">
+        <v>78488</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F178" s="1">
+        <v>123.73</v>
+      </c>
+      <c r="G178" s="1">
+        <v>124.13</v>
+      </c>
+      <c r="H178" s="1">
+        <v>123.94</v>
+      </c>
+      <c r="I178" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" t="s">
+        <v>125</v>
+      </c>
+      <c r="C179" t="s">
+        <v>45</v>
+      </c>
+      <c r="D179" s="2">
+        <v>208669</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F179" s="1">
+        <v>128.53</v>
+      </c>
+      <c r="G179" s="1">
+        <v>128.93</v>
+      </c>
+      <c r="H179" s="1">
+        <v>128.75</v>
+      </c>
+      <c r="I179" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" t="s">
+        <v>123</v>
+      </c>
+      <c r="C180" t="s">
+        <v>45</v>
+      </c>
+      <c r="D180" s="2">
+        <v>78533</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F180" s="1">
+        <v>140.9</v>
+      </c>
+      <c r="G180" s="1">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="H180" s="1">
+        <v>141.11000000000001</v>
+      </c>
+      <c r="I180" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" t="s">
+        <v>131</v>
+      </c>
+      <c r="C181" t="s">
+        <v>45</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H181" s="1">
+        <v>20</v>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" t="s">
         <v>132</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C182" t="s">
         <v>45</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D182" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E182" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F182" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G182" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="b">
-        <v>1</v>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/transducer_locations.xlsx
+++ b/metadata/transducer_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bowmani\Documents\Thesis - UoG\Temporary Deployments\2024\R\tdproc\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D9139C-E467-416D-9E30-01EC1935E9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA625C46-0DFC-41E6-8622-2D8F56B35BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15720" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
   </bookViews>
   <sheets>
     <sheet name="ELR" sheetId="3" r:id="rId1"/>
@@ -65,700 +65,700 @@
     <t>NA</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>elr</t>
+  </si>
+  <si>
+    <t>ELR1-R1</t>
+  </si>
+  <si>
+    <t>ELR1-R2</t>
+  </si>
+  <si>
+    <t>baro_diver</t>
+  </si>
+  <si>
+    <t>liner</t>
+  </si>
+  <si>
+    <t>R1641</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port10_208648_20240626_1131.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port11_078182_20240626_1129.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port12_206590_20240626_1121.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port13_078184_20240626_1124.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port14_077753_20240626_1107.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port15_208663_20240626_1101.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port16_208651_20240626_1035.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Liner_082215_20240626_1217.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_213655_20240626_1219.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_Diver_240626124006_R1641.DAT</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_Diver_240627183758_R1641.xlsx</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_Diver_240627183758_R1641.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_Diver_240627183758_R1641.MON</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Liner_082209_20240624_2053.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port10_208650_20240624_1933.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port11_081843_20240624_2051.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port12_208653_20240624_1909.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port13_208658_20240624_2016.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port14_077919_20240624_2052.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port15_077923_20240624_1942.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port16_203023_20240624_2013.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port17_081547_20240624_1952.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port18_077916_20240624_2052.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port19_078075_20240624_2052.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port20_078074_20240624_2013.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port21_078083_20240624_2020.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1</t>
+  </si>
+  <si>
+    <t>ELR2-R2</t>
+  </si>
+  <si>
+    <t>baro_short</t>
+  </si>
+  <si>
+    <t>baro_long</t>
+  </si>
+  <si>
+    <t>P1041</t>
+  </si>
+  <si>
+    <t>L8284</t>
+  </si>
+  <si>
+    <t>L8367</t>
+  </si>
+  <si>
+    <t>L8346</t>
+  </si>
+  <si>
+    <t>N7114</t>
+  </si>
+  <si>
+    <t>N7107</t>
+  </si>
+  <si>
+    <t>N7119</t>
+  </si>
+  <si>
+    <t>N7116</t>
+  </si>
+  <si>
+    <t>N6566</t>
+  </si>
+  <si>
+    <t>L8344</t>
+  </si>
+  <si>
+    <t>L8360</t>
+  </si>
+  <si>
+    <t>B9750</t>
+  </si>
+  <si>
+    <t>R9455</t>
+  </si>
+  <si>
+    <t>ELR1-R1_105m_N7107.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_109m_N7119.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_111m_N7116.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_113m_N6566.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_117m_L8344.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_123m_L8360.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_126m_B9750.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_61m_P1041.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_63m_L8284.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_67m_L8367.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_74m_L8346.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_91m_N7114.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_LongBaro_R9455.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_ShortBaro_077642.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_ShortBaro_077642.xlsx</t>
+  </si>
+  <si>
+    <t>J3391</t>
+  </si>
+  <si>
+    <t>J3415</t>
+  </si>
+  <si>
+    <t>V9201</t>
+  </si>
+  <si>
+    <t>V9206</t>
+  </si>
+  <si>
+    <t>V9209</t>
+  </si>
+  <si>
+    <t>ELR1-R2_100m_203031.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_111m_208672.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_114m_208676.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_118m_208674.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_121m_208677.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_125m_208668.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_127m_208670.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_31m_J3391.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R2_33m_J3415.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R2_42m_V9201.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R2_47m_V9206.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R2_63m_V9209.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R2_77m_208649.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_96m_208658.rsk</t>
+  </si>
+  <si>
+    <t>V9013</t>
+  </si>
+  <si>
+    <t>V9337</t>
+  </si>
+  <si>
+    <t>V9373</t>
+  </si>
+  <si>
+    <t>V9844</t>
+  </si>
+  <si>
+    <t>ELR2-R1_105m_208661.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_107m_208653.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_111m_208678.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_125m_208671.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_134m_208679.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_116m_208673.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_137m_078489.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_139m_208675.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_87m_V9013.CSV</t>
+  </si>
+  <si>
+    <t>ELR2-R1_90m_V9337.CSV</t>
+  </si>
+  <si>
+    <t>ELR2-R1_93m_V9373.CSV</t>
+  </si>
+  <si>
+    <t>ELR2-R1_97m_208664.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Liner_V9844.CSV</t>
+  </si>
+  <si>
+    <t>P4403</t>
+  </si>
+  <si>
+    <t>P4404</t>
+  </si>
+  <si>
+    <t>N0737</t>
+  </si>
+  <si>
+    <t>P3574</t>
+  </si>
+  <si>
+    <t>D2746</t>
+  </si>
+  <si>
+    <t>N7618</t>
+  </si>
+  <si>
+    <t>R9462</t>
+  </si>
+  <si>
+    <t>ELR2-R2_106m_081841.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_120m_078534.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_121m_078490.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_124m_078488.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_141m_078533.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_115m_081811.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_129m_208669.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_35m_P4403.CSV</t>
+  </si>
+  <si>
+    <t>ELR2-R2_58m_N0737.CSV</t>
+  </si>
+  <si>
+    <t>ELR2-R2_63m_P3574.CSV</t>
+  </si>
+  <si>
+    <t>ELR2-R2_73m_D2746.CSV</t>
+  </si>
+  <si>
+    <t>ELR2-R2_52m_P4404.CSV</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Liner_N7618.CSV</t>
+  </si>
+  <si>
+    <t>ELR2-R2_ShortBaro_R9462.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port01_078489_20240626_1200.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port02_208678_20240626_1157.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port03_082140_20240626_1153.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port09_078180_20240626_1129.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port08_208659_20240626_1129.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port07_081817_20240626_1129.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port06_081844_20240626_1140.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port05_208669_20240626_1156.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port04_208674_20240626_1156.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port09_208656_20240624_1905.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port08_208649_20240624_1901.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port07_078189_20240624_1937.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port06_078528_20240624_1900.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port05_208677_20240624_1843.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port04_078526_20240624_1824.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port03_208672_20240624_1829.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port02_082139_20240624_1810.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port01_208668_20240624_1749.rsk</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port20_077658_20241023_1604.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port19_077657_20241023_1607.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port18_077656_20241023_1608.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port17_077654_20241023_1606.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port16_081535_20241023_1610.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port15_078078_20241023_1612.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port14_213562_20241023_1636.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port13_078077_20241023_1627.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port12_081845_20241017_1322.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port11_208666_20241023_1659.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port10_208667_20241023_1659.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port09_208657_20241023_1629.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port08_208665_20241023_1628.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port07_208664_20241023_1609.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port06_081827_20241017_1253.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port05_078179_20241017_1240.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port04_208675_20241023_1706.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port03_203041_20241023_1707.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port02_208679_20241023_1641.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Port01_208670_20241023_1640.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R2_Liner_082210_20241017_1252.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_213655_20241029_1451.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_Diver_241031094139_R1641.DAT</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_Diver_241031104748_R1641.CSV</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_Diver_241031104748_R1641.MON</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Baro_Diver_241031104748_R1641.xlsx</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Liner_082215_20240730_1030.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port01_078489_20240730_1034.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port02_208678_20240730_1052.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port03_082140_20240730_1053.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port04_208674_20240730_1104.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port05_208669_20240730_1124.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port06_081844_20240730_1129.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port07_081817_20240730_1134.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port08_208659_20240730_1140.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port09_078180_20240730_1144.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port10_208648_20240730_1149.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port11_078182_20240826_1028.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port12_206590_20240730_1157.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port13_078184_20240730_1200.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port14_077753_20240730_1210.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port15_208663_20240730_1209.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R1_Port16_208651_20240730_1214.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Liner_082209_20241029_1447.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port01_208668_20241030_1654.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port02_082139_20241030_1634.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port03_208672_20241030_1633.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port04_078526_20241030_1632.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port05_208677_20241030_1629.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port06_078528_20241030_1631.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port07_078189_20241030_1550.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port08_208649_20241030_1545.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port09_208656_20241030_1540.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port10_208650_20241030_1539.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port11_081843_20241030_1538.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port12_208653_20241030_1538.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port13_208658_20241029_1617.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port14_077919_20241029_1614.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port15_077923_20241029_1609.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port16_203023_20241029_1605.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port17_081547_20241029_1602.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port18_077916_20241029_1556.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port19_078075_20241029_1556.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port20_078074_20241029_1555.rsk</t>
+  </si>
+  <si>
+    <t>ELR1-R2_Port21_078083_20241029_1538.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Baro_213650_20241017_1320.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Liner_203042_20241017_1217.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port01_078527_20241024_1515.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port02_078532_20241024_1514.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port03_208671_20241024_1520.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port04_078534_20241024_1528.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port05_082142_20241024_1537.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port06_082214_20241024_1548.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port07_081833_20241024_1552.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port08_208654_20241024_1556.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port09_078183_20241024_1605.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port10_077752_20241024_1606.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port11_208655_20241024_1609.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port12_081839_20241024_1625.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port13_208652_20241024_1626.rsk</t>
+  </si>
+  <si>
+    <t>ELR2-R1_Port14_208660_20241024_1626.rsk</t>
+  </si>
+  <si>
     <t>baro_rbr</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>elr</t>
-  </si>
-  <si>
-    <t>ELR1-R1</t>
-  </si>
-  <si>
-    <t>ELR1-R2</t>
-  </si>
-  <si>
-    <t>baro_diver</t>
-  </si>
-  <si>
-    <t>liner</t>
-  </si>
-  <si>
-    <t>R1641</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port10_208648_20240626_1131.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port11_078182_20240626_1129.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port12_206590_20240626_1121.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port13_078184_20240626_1124.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port14_077753_20240626_1107.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port15_208663_20240626_1101.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port16_208651_20240626_1035.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Liner_082215_20240626_1217.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Baro_213655_20240626_1219.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Baro_Diver_240626124006_R1641.DAT</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Baro_Diver_240627183758_R1641.xlsx</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Baro_Diver_240627183758_R1641.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Baro_Diver_240627183758_R1641.MON</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Liner_082209_20240624_2053.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port10_208650_20240624_1933.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port11_081843_20240624_2051.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port12_208653_20240624_1909.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port13_208658_20240624_2016.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port14_077919_20240624_2052.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port15_077923_20240624_1942.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port16_203023_20240624_2013.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port17_081547_20240624_1952.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port18_077916_20240624_2052.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port19_078075_20240624_2052.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port20_078074_20240624_2013.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port21_078083_20240624_2020.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1</t>
-  </si>
-  <si>
-    <t>ELR2-R2</t>
-  </si>
-  <si>
-    <t>baro_short</t>
-  </si>
-  <si>
-    <t>baro_long</t>
-  </si>
-  <si>
-    <t>P1041</t>
-  </si>
-  <si>
-    <t>L8284</t>
-  </si>
-  <si>
-    <t>L8367</t>
-  </si>
-  <si>
-    <t>L8346</t>
-  </si>
-  <si>
-    <t>N7114</t>
-  </si>
-  <si>
-    <t>N7107</t>
-  </si>
-  <si>
-    <t>N7119</t>
-  </si>
-  <si>
-    <t>N7116</t>
-  </si>
-  <si>
-    <t>N6566</t>
-  </si>
-  <si>
-    <t>L8344</t>
-  </si>
-  <si>
-    <t>L8360</t>
-  </si>
-  <si>
-    <t>B9750</t>
-  </si>
-  <si>
-    <t>R9455</t>
-  </si>
-  <si>
-    <t>ELR1-R1_105m_N7107.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R1_109m_N7119.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R1_111m_N7116.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R1_113m_N6566.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R1_117m_L8344.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R1_123m_L8360.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R1_126m_B9750.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R1_61m_P1041.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R1_63m_L8284.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R1_67m_L8367.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R1_74m_L8346.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R1_91m_N7114.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R1_LongBaro_R9455.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R1_ShortBaro_077642.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_ShortBaro_077642.xlsx</t>
-  </si>
-  <si>
-    <t>J3391</t>
-  </si>
-  <si>
-    <t>J3415</t>
-  </si>
-  <si>
-    <t>V9201</t>
-  </si>
-  <si>
-    <t>V9206</t>
-  </si>
-  <si>
-    <t>V9209</t>
-  </si>
-  <si>
-    <t>ELR1-R2_100m_203031.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_111m_208672.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_114m_208676.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_118m_208674.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_121m_208677.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_125m_208668.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_127m_208670.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_31m_J3391.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R2_33m_J3415.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R2_42m_V9201.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R2_47m_V9206.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R2_63m_V9209.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R2_77m_208649.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_96m_208658.rsk</t>
-  </si>
-  <si>
-    <t>V9013</t>
-  </si>
-  <si>
-    <t>V9337</t>
-  </si>
-  <si>
-    <t>V9373</t>
-  </si>
-  <si>
-    <t>V9844</t>
-  </si>
-  <si>
-    <t>ELR2-R1_105m_208661.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_107m_208653.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_111m_208678.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_125m_208671.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_134m_208679.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_116m_208673.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_137m_078489.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_139m_208675.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_87m_V9013.CSV</t>
-  </si>
-  <si>
-    <t>ELR2-R1_90m_V9337.CSV</t>
-  </si>
-  <si>
-    <t>ELR2-R1_93m_V9373.CSV</t>
-  </si>
-  <si>
-    <t>ELR2-R1_97m_208664.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Liner_V9844.CSV</t>
-  </si>
-  <si>
-    <t>P4403</t>
-  </si>
-  <si>
-    <t>P4404</t>
-  </si>
-  <si>
-    <t>N0737</t>
-  </si>
-  <si>
-    <t>P3574</t>
-  </si>
-  <si>
-    <t>D2746</t>
-  </si>
-  <si>
-    <t>N7618</t>
-  </si>
-  <si>
-    <t>R9462</t>
-  </si>
-  <si>
-    <t>ELR2-R2_106m_081841.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_120m_078534.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_121m_078490.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_124m_078488.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_141m_078533.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_115m_081811.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_129m_208669.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_35m_P4403.CSV</t>
-  </si>
-  <si>
-    <t>ELR2-R2_58m_N0737.CSV</t>
-  </si>
-  <si>
-    <t>ELR2-R2_63m_P3574.CSV</t>
-  </si>
-  <si>
-    <t>ELR2-R2_73m_D2746.CSV</t>
-  </si>
-  <si>
-    <t>ELR2-R2_52m_P4404.CSV</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Liner_N7618.CSV</t>
-  </si>
-  <si>
-    <t>ELR2-R2_ShortBaro_R9462.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port01_078489_20240626_1200.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port02_208678_20240626_1157.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port03_082140_20240626_1153.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port09_078180_20240626_1129.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port08_208659_20240626_1129.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port07_081817_20240626_1129.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port06_081844_20240626_1140.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port05_208669_20240626_1156.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port04_208674_20240626_1156.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port09_208656_20240624_1905.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port08_208649_20240624_1901.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port07_078189_20240624_1937.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port06_078528_20240624_1900.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port05_208677_20240624_1843.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port04_078526_20240624_1824.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port03_208672_20240624_1829.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port02_082139_20240624_1810.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port01_208668_20240624_1749.rsk</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port20_077658_20241023_1604.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port19_077657_20241023_1607.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port18_077656_20241023_1608.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port17_077654_20241023_1606.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port16_081535_20241023_1610.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port15_078078_20241023_1612.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port14_213562_20241023_1636.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port13_078077_20241023_1627.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port12_081845_20241017_1322.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port11_208666_20241023_1659.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port10_208667_20241023_1659.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port09_208657_20241023_1629.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port08_208665_20241023_1628.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port07_208664_20241023_1609.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port06_081827_20241017_1253.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port05_078179_20241017_1240.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port04_208675_20241023_1706.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port03_203041_20241023_1707.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port02_208679_20241023_1641.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Port01_208670_20241023_1640.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R2_Liner_082210_20241017_1252.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Baro_213655_20241029_1451.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Baro_Diver_241031094139_R1641.DAT</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Baro_Diver_241031104748_R1641.CSV</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Baro_Diver_241031104748_R1641.MON</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Baro_Diver_241031104748_R1641.xlsx</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Liner_082215_20240730_1030.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port01_078489_20240730_1034.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port02_208678_20240730_1052.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port03_082140_20240730_1053.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port04_208674_20240730_1104.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port05_208669_20240730_1124.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port06_081844_20240730_1129.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port07_081817_20240730_1134.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port08_208659_20240730_1140.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port09_078180_20240730_1144.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port10_208648_20240730_1149.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port11_078182_20240826_1028.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port12_206590_20240730_1157.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port13_078184_20240730_1200.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port14_077753_20240730_1210.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port15_208663_20240730_1209.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R1_Port16_208651_20240730_1214.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Liner_082209_20241029_1447.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port01_208668_20241030_1654.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port02_082139_20241030_1634.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port03_208672_20241030_1633.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port04_078526_20241030_1632.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port05_208677_20241030_1629.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port06_078528_20241030_1631.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port07_078189_20241030_1550.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port08_208649_20241030_1545.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port09_208656_20241030_1540.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port10_208650_20241030_1539.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port11_081843_20241030_1538.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port12_208653_20241030_1538.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port13_208658_20241029_1617.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port14_077919_20241029_1614.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port15_077923_20241029_1609.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port16_203023_20241029_1605.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port17_081547_20241029_1602.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port18_077916_20241029_1556.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port19_078075_20241029_1556.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port20_078074_20241029_1555.rsk</t>
-  </si>
-  <si>
-    <t>ELR1-R2_Port21_078083_20241029_1538.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Baro_213650_20241017_1320.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Liner_203042_20241017_1217.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Port01_078527_20241024_1515.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Port02_078532_20241024_1514.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Port03_208671_20241024_1520.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Port04_078534_20241024_1528.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Port05_082142_20241024_1537.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Port06_082214_20241024_1548.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Port07_081833_20241024_1552.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Port08_208654_20241024_1556.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Port09_078183_20241024_1605.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Port10_077752_20241024_1606.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Port11_208655_20241024_1609.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Port12_081839_20241024_1625.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Port13_208652_20241024_1626.rsk</t>
-  </si>
-  <si>
-    <t>ELR2-R1_Port14_208660_20241024_1626.rsk</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1140,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1167,18 +1167,18 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="2">
         <v>208651</v>
@@ -1204,13 +1204,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="2">
         <v>208651</v>
@@ -1236,13 +1236,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>208663</v>
@@ -1268,13 +1268,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>208663</v>
@@ -1300,13 +1300,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>77753</v>
@@ -1332,13 +1332,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>77753</v>
@@ -1364,13 +1364,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>78184</v>
@@ -1396,13 +1396,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
       <c r="D9" s="2">
         <v>78184</v>
@@ -1428,13 +1428,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
       </c>
       <c r="D10" s="2">
         <v>206590</v>
@@ -1460,13 +1460,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
       </c>
       <c r="D11" s="2">
         <v>206590</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
       </c>
       <c r="D12" s="2">
         <v>78182</v>
@@ -1524,13 +1524,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
       </c>
       <c r="D13" s="2">
         <v>78182</v>
@@ -1556,13 +1556,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
       </c>
       <c r="D14" s="2">
         <v>208648</v>
@@ -1588,13 +1588,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" t="s">
         <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
       </c>
       <c r="D15" s="2">
         <v>208648</v>
@@ -1620,19 +1620,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
         <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
       </c>
       <c r="D16" s="2">
         <v>78180</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F16" s="1">
         <v>87.08</v>
@@ -1652,19 +1652,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" t="s">
         <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
       </c>
       <c r="D17" s="2">
         <v>78180</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F17" s="1">
         <v>87.08</v>
@@ -1684,19 +1684,19 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
         <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
       </c>
       <c r="D18" s="2">
         <v>208659</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F18" s="1">
         <v>90.54</v>
@@ -1716,19 +1716,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" t="s">
         <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
       </c>
       <c r="D19" s="2">
         <v>208659</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F19" s="1">
         <v>90.54</v>
@@ -1748,19 +1748,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
         <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
       </c>
       <c r="D20" s="2">
         <v>81817</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F20" s="1">
         <v>93.2</v>
@@ -1780,19 +1780,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s">
         <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
       </c>
       <c r="D21" s="2">
         <v>81817</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F21" s="1">
         <v>93.2</v>
@@ -1812,19 +1812,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
         <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
       </c>
       <c r="D22" s="2">
         <v>81844</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F22" s="1">
         <v>97.82</v>
@@ -1844,19 +1844,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" t="s">
         <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
       </c>
       <c r="D23" s="2">
         <v>81844</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" s="1">
         <v>97.82</v>
@@ -1876,19 +1876,19 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
         <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
       </c>
       <c r="D24" s="2">
         <v>208669</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F24" s="1">
         <v>102.16</v>
@@ -1908,19 +1908,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" t="s">
         <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
       </c>
       <c r="D25" s="2">
         <v>208669</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F25" s="1">
         <v>102.16</v>
@@ -1940,19 +1940,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" t="s">
         <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
       </c>
       <c r="D26" s="2">
         <v>208674</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F26" s="1">
         <v>108</v>
@@ -1972,19 +1972,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" t="s">
         <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
       </c>
       <c r="D27" s="2">
         <v>208674</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F27" s="1">
         <v>108</v>
@@ -2004,19 +2004,19 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
         <v>12</v>
-      </c>
-      <c r="B28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
       </c>
       <c r="D28" s="2">
         <v>82140</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F28" s="1">
         <v>115.71</v>
@@ -2036,19 +2036,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" t="s">
         <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>189</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
       </c>
       <c r="D29" s="2">
         <v>82140</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F29" s="1">
         <v>115.71</v>
@@ -2068,19 +2068,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" t="s">
         <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
       </c>
       <c r="D30" s="2">
         <v>208678</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F30" s="1">
         <v>122.5</v>
@@ -2100,19 +2100,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" t="s">
         <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
       </c>
       <c r="D31" s="2">
         <v>208678</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" s="1">
         <v>122.5</v>
@@ -2132,19 +2132,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
         <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
       </c>
       <c r="D32" s="2">
         <v>78489</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F32" s="1">
         <v>129.22999999999999</v>
@@ -2164,19 +2164,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" t="s">
         <v>12</v>
-      </c>
-      <c r="B33" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
       </c>
       <c r="D33" s="2">
         <v>78489</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F33" s="1">
         <v>129.22999999999999</v>
@@ -2196,19 +2196,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
         <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
       </c>
       <c r="D34" s="2">
         <v>82215</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>8</v>
@@ -2225,19 +2225,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" t="s">
         <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
       </c>
       <c r="D35" s="2">
         <v>82215</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>8</v>
@@ -2254,19 +2254,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
         <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
       </c>
       <c r="D36" s="2">
         <v>213655</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>9</v>
+        <v>240</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>8</v>
@@ -2286,19 +2286,19 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s">
         <v>12</v>
-      </c>
-      <c r="B37" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
       </c>
       <c r="D37" s="2">
         <v>213655</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>9</v>
+        <v>240</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>8</v>
@@ -2318,19 +2318,19 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
         <v>12</v>
       </c>
-      <c r="B38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>8</v>
@@ -2350,19 +2350,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
         <v>12</v>
       </c>
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>8</v>
@@ -2382,19 +2382,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
         <v>12</v>
       </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>8</v>
@@ -2414,19 +2414,19 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
         <v>12</v>
       </c>
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>8</v>
@@ -2446,19 +2446,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" t="s">
         <v>12</v>
       </c>
-      <c r="B42" t="s">
-        <v>182</v>
-      </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>8</v>
@@ -2478,19 +2478,19 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" t="s">
         <v>12</v>
       </c>
-      <c r="B43" t="s">
-        <v>183</v>
-      </c>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>8</v>
@@ -2510,19 +2510,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" t="s">
         <v>12</v>
       </c>
-      <c r="B44" t="s">
-        <v>184</v>
-      </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>8</v>
@@ -2542,19 +2542,19 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" t="s">
         <v>12</v>
       </c>
-      <c r="B45" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>8</v>
@@ -2574,13 +2574,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2">
         <v>78083</v>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2">
         <v>78083</v>
@@ -2638,13 +2638,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2">
         <v>78074</v>
@@ -2670,13 +2670,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2">
         <v>78074</v>
@@ -2702,13 +2702,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2">
         <v>78075</v>
@@ -2734,13 +2734,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2">
         <v>78075</v>
@@ -2766,13 +2766,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2">
         <v>77916</v>
@@ -2798,13 +2798,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2">
         <v>77916</v>
@@ -2830,13 +2830,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2">
         <v>81547</v>
@@ -2862,13 +2862,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2">
         <v>81547</v>
@@ -2894,13 +2894,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2">
         <v>203023</v>
@@ -2926,13 +2926,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2">
         <v>203023</v>
@@ -2958,13 +2958,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2">
         <v>77923</v>
@@ -2990,13 +2990,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2">
         <v>77923</v>
@@ -3022,13 +3022,13 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2">
         <v>77919</v>
@@ -3054,13 +3054,13 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2">
         <v>77919</v>
@@ -3086,13 +3086,13 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2">
         <v>208658</v>
@@ -3118,13 +3118,13 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2">
         <v>208658</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2">
         <v>208653</v>
@@ -3182,13 +3182,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2">
         <v>208653</v>
@@ -3214,13 +3214,13 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2">
         <v>81843</v>
@@ -3246,13 +3246,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2">
         <v>81843</v>
@@ -3278,13 +3278,13 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2">
         <v>208650</v>
@@ -3310,13 +3310,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2">
         <v>208650</v>
@@ -3342,19 +3342,19 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2">
         <v>208656</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F70" s="1">
         <v>74.89</v>
@@ -3374,19 +3374,19 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2">
         <v>208656</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F71" s="1">
         <v>74.89</v>
@@ -3406,19 +3406,19 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2">
         <v>208649</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F72" s="1">
         <v>78.319999999999993</v>
@@ -3438,19 +3438,19 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2">
         <v>208649</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F73" s="1">
         <v>78.319999999999993</v>
@@ -3470,19 +3470,19 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2">
         <v>78189</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F74" s="1">
         <v>84.57</v>
@@ -3502,19 +3502,19 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2">
         <v>78189</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F75" s="1">
         <v>84.57</v>
@@ -3534,19 +3534,19 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2">
         <v>78528</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F76" s="1">
         <v>93.46</v>
@@ -3566,19 +3566,19 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2">
         <v>78528</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F77" s="1">
         <v>93.46</v>
@@ -3598,19 +3598,19 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2">
         <v>208677</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F78" s="1">
         <v>100.16</v>
@@ -3630,19 +3630,19 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2">
         <v>208677</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F79" s="1">
         <v>100.16</v>
@@ -3662,19 +3662,19 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2">
         <v>78526</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F80" s="1">
         <v>107.9</v>
@@ -3694,19 +3694,19 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2">
         <v>78526</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F81" s="1">
         <v>107.9</v>
@@ -3726,19 +3726,19 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2">
         <v>208672</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F82" s="1">
         <v>113.75</v>
@@ -3758,19 +3758,19 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2">
         <v>208672</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F83" s="1">
         <v>113.75</v>
@@ -3790,19 +3790,19 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2">
         <v>82139</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F84" s="1">
         <v>122.55</v>
@@ -3822,19 +3822,19 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2">
         <v>82139</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F85" s="1">
         <v>122.55</v>
@@ -3854,19 +3854,19 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2">
         <v>208668</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F86" s="1">
         <v>129.85</v>
@@ -3886,19 +3886,19 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2">
         <v>208668</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F87" s="1">
         <v>129.85</v>
@@ -3918,19 +3918,19 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2">
         <v>82209</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>8</v>
@@ -3947,19 +3947,19 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2">
         <v>82209</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>8</v>
@@ -3976,13 +3976,13 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D90" s="2">
         <v>208660</v>
@@ -4008,13 +4008,13 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D91" s="2">
         <v>208652</v>
@@ -4040,13 +4040,13 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D92" s="2">
         <v>81839</v>
@@ -4072,13 +4072,13 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D93" s="2">
         <v>208655</v>
@@ -4104,13 +4104,13 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D94" s="2">
         <v>77752</v>
@@ -4136,19 +4136,19 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D95" s="2">
         <v>78183</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F95" s="1">
         <v>96.99</v>
@@ -4168,19 +4168,19 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D96" s="2">
         <v>208654</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F96" s="1">
         <v>101.23</v>
@@ -4200,19 +4200,19 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D97" s="2">
         <v>81833</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F97" s="1">
         <v>104.35</v>
@@ -4232,19 +4232,19 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D98" s="2">
         <v>82214</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F98" s="1">
         <v>106.77</v>
@@ -4264,19 +4264,19 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D99" s="2">
         <v>82142</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F99" s="1">
         <v>118.81</v>
@@ -4296,19 +4296,19 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D100" s="2">
         <v>78534</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F100" s="1">
         <v>125.43</v>
@@ -4328,19 +4328,19 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D101" s="2">
         <v>208671</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F101" s="1">
         <v>129.53</v>
@@ -4360,19 +4360,19 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D102" s="2">
         <v>78532</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F102" s="1">
         <v>132.94</v>
@@ -4392,19 +4392,19 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D103" s="2">
         <v>78527</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F103" s="1">
         <v>138.31</v>
@@ -4424,19 +4424,19 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D104" s="2">
         <v>203042</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>8</v>
@@ -4456,19 +4456,19 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D105" s="2">
         <v>213650</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>9</v>
+        <v>240</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>8</v>
@@ -4488,13 +4488,13 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D106" s="2">
         <v>77658</v>
@@ -4520,13 +4520,13 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D107" s="2">
         <v>77657</v>
@@ -4552,13 +4552,13 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D108" s="2">
         <v>77656</v>
@@ -4584,13 +4584,13 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D109" s="2">
         <v>77654</v>
@@ -4616,13 +4616,13 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D110" s="2">
         <v>81535</v>
@@ -4648,13 +4648,13 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2">
         <v>78078</v>
@@ -4680,13 +4680,13 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D112" s="2">
         <v>213562</v>
@@ -4712,13 +4712,13 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D113" s="2">
         <v>78077</v>
@@ -4744,13 +4744,13 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D114" s="2">
         <v>81845</v>
@@ -4776,13 +4776,13 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D115" s="2">
         <v>208666</v>
@@ -4808,13 +4808,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D116" s="2">
         <v>208667</v>
@@ -4840,19 +4840,19 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D117" s="2">
         <v>208657</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F117" s="1">
         <v>85.3</v>
@@ -4872,19 +4872,19 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D118" s="2">
         <v>208665</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F118" s="1">
         <v>91.05</v>
@@ -4904,19 +4904,19 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D119" s="2">
         <v>208664</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F119" s="1">
         <v>95.74</v>
@@ -4936,19 +4936,19 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D120" s="2">
         <v>81827</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F120" s="1">
         <v>100.68</v>
@@ -4968,19 +4968,19 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D121" s="2">
         <v>78179</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F121" s="1">
         <v>111.17</v>
@@ -5000,19 +5000,19 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D122" s="2">
         <v>208675</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F122" s="1">
         <v>119.68</v>
@@ -5032,19 +5032,19 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D123" s="2">
         <v>203041</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F123" s="1">
         <v>122.07</v>
@@ -5064,19 +5064,19 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D124" s="2">
         <v>208679</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F124" s="1">
         <v>135.83000000000001</v>
@@ -5096,19 +5096,19 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D125" s="2">
         <v>208670</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F125" s="1">
         <v>139.72</v>
@@ -5128,19 +5128,19 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D126" s="2">
         <v>82210</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>8</v>
@@ -5160,16 +5160,16 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
+      <c r="C127" t="s">
         <v>12</v>
       </c>
-      <c r="B127" t="s">
-        <v>68</v>
-      </c>
-      <c r="C127" t="s">
-        <v>13</v>
-      </c>
       <c r="D127" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E127" s="3">
         <v>12</v>
@@ -5192,16 +5192,16 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>68</v>
+      </c>
+      <c r="C128" t="s">
         <v>12</v>
       </c>
-      <c r="B128" t="s">
-        <v>69</v>
-      </c>
-      <c r="C128" t="s">
-        <v>13</v>
-      </c>
       <c r="D128" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E128" s="3">
         <v>11</v>
@@ -5224,16 +5224,16 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>69</v>
+      </c>
+      <c r="C129" t="s">
         <v>12</v>
       </c>
-      <c r="B129" t="s">
-        <v>70</v>
-      </c>
-      <c r="C129" t="s">
-        <v>13</v>
-      </c>
       <c r="D129" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E129" s="3">
         <v>10</v>
@@ -5256,19 +5256,19 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>70</v>
+      </c>
+      <c r="C130" t="s">
         <v>12</v>
       </c>
-      <c r="B130" t="s">
-        <v>71</v>
-      </c>
-      <c r="C130" t="s">
-        <v>13</v>
-      </c>
       <c r="D130" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F130" s="1">
         <v>73.72</v>
@@ -5288,19 +5288,19 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131" t="s">
         <v>12</v>
       </c>
-      <c r="B131" t="s">
-        <v>72</v>
-      </c>
-      <c r="C131" t="s">
-        <v>13</v>
-      </c>
       <c r="D131" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F131" s="1">
         <v>91.28</v>
@@ -5320,19 +5320,19 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>60</v>
+      </c>
+      <c r="C132" t="s">
         <v>12</v>
       </c>
-      <c r="B132" t="s">
-        <v>61</v>
-      </c>
-      <c r="C132" t="s">
-        <v>13</v>
-      </c>
       <c r="D132" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F132" s="1">
         <v>104.83</v>
@@ -5352,19 +5352,19 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>61</v>
+      </c>
+      <c r="C133" t="s">
         <v>12</v>
       </c>
-      <c r="B133" t="s">
-        <v>62</v>
-      </c>
-      <c r="C133" t="s">
-        <v>13</v>
-      </c>
       <c r="D133" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F133" s="1">
         <v>108.8</v>
@@ -5384,19 +5384,19 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>62</v>
+      </c>
+      <c r="C134" t="s">
         <v>12</v>
       </c>
-      <c r="B134" t="s">
-        <v>63</v>
-      </c>
-      <c r="C134" t="s">
-        <v>13</v>
-      </c>
       <c r="D134" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F134" s="1">
         <v>110.76</v>
@@ -5416,19 +5416,19 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>63</v>
+      </c>
+      <c r="C135" t="s">
         <v>12</v>
       </c>
-      <c r="B135" t="s">
-        <v>64</v>
-      </c>
-      <c r="C135" t="s">
-        <v>13</v>
-      </c>
       <c r="D135" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F135" s="1">
         <v>112.64</v>
@@ -5448,19 +5448,19 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>64</v>
+      </c>
+      <c r="C136" t="s">
         <v>12</v>
       </c>
-      <c r="B136" t="s">
-        <v>65</v>
-      </c>
-      <c r="C136" t="s">
-        <v>13</v>
-      </c>
       <c r="D136" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F136" s="1">
         <v>116.64</v>
@@ -5480,19 +5480,19 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" t="s">
         <v>12</v>
       </c>
-      <c r="B137" t="s">
-        <v>66</v>
-      </c>
-      <c r="C137" t="s">
-        <v>13</v>
-      </c>
       <c r="D137" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F137" s="1">
         <v>122.86</v>
@@ -5512,19 +5512,19 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>66</v>
+      </c>
+      <c r="C138" t="s">
         <v>12</v>
       </c>
-      <c r="B138" t="s">
-        <v>67</v>
-      </c>
-      <c r="C138" t="s">
-        <v>13</v>
-      </c>
       <c r="D138" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F138" s="1">
         <v>125.56</v>
@@ -5544,19 +5544,19 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>73</v>
+      </c>
+      <c r="C139" t="s">
         <v>12</v>
-      </c>
-      <c r="B139" t="s">
-        <v>74</v>
-      </c>
-      <c r="C139" t="s">
-        <v>13</v>
       </c>
       <c r="D139" s="2">
         <v>77642</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>8</v>
@@ -5573,19 +5573,19 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" t="s">
+        <v>74</v>
+      </c>
+      <c r="C140" t="s">
         <v>12</v>
-      </c>
-      <c r="B140" t="s">
-        <v>75</v>
-      </c>
-      <c r="C140" t="s">
-        <v>13</v>
       </c>
       <c r="D140" s="2">
         <v>77642</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>8</v>
@@ -5602,19 +5602,19 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" t="s">
+        <v>72</v>
+      </c>
+      <c r="C141" t="s">
         <v>12</v>
       </c>
-      <c r="B141" t="s">
-        <v>73</v>
-      </c>
-      <c r="C141" t="s">
-        <v>13</v>
-      </c>
       <c r="D141" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>8</v>
@@ -5631,16 +5631,16 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E142" s="3">
         <v>14</v>
@@ -5663,16 +5663,16 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E143" s="3">
         <v>13</v>
@@ -5695,16 +5695,16 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E144" s="3">
         <v>12</v>
@@ -5727,16 +5727,16 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E145" s="3">
         <v>11</v>
@@ -5759,16 +5759,16 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E146" s="3">
         <v>10</v>
@@ -5791,19 +5791,19 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2">
         <v>208649</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F147" s="1">
         <v>76.53</v>
@@ -5823,19 +5823,19 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D148" s="2">
         <v>208658</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F148" s="1">
         <v>95.43</v>
@@ -5855,19 +5855,19 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D149" s="2">
         <v>203031</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F149" s="1">
         <v>99.39</v>
@@ -5887,19 +5887,19 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D150" s="2">
         <v>208672</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F150" s="1">
         <v>110.79</v>
@@ -5919,19 +5919,19 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2">
         <v>208676</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F151" s="1">
         <v>113.75</v>
@@ -5951,19 +5951,19 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2">
         <v>208674</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F152" s="1">
         <v>117.34</v>
@@ -5983,19 +5983,19 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D153" s="2">
         <v>208677</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F153" s="1">
         <v>120.62</v>
@@ -6015,19 +6015,19 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D154" s="2">
         <v>208668</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F154" s="1">
         <v>124.69</v>
@@ -6047,19 +6047,19 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D155" s="2">
         <v>208670</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F155" s="1">
         <v>126.87</v>
@@ -6079,16 +6079,16 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E156" s="3">
         <v>12</v>
@@ -6111,16 +6111,16 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C157" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E157" s="3">
         <v>11</v>
@@ -6143,16 +6143,16 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B158" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E158" s="3">
         <v>10</v>
@@ -6175,19 +6175,19 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D159" s="2">
         <v>208664</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F159" s="1">
         <v>96.99</v>
@@ -6207,19 +6207,19 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D160" s="2">
         <v>208661</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F160" s="1">
         <v>105.23</v>
@@ -6239,19 +6239,19 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D161" s="2">
         <v>208653</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F161" s="1">
         <v>107.28</v>
@@ -6271,19 +6271,19 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D162" s="2">
         <v>208678</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F162" s="1">
         <v>111.26</v>
@@ -6303,19 +6303,19 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C163" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D163" s="2">
         <v>208673</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F163" s="1">
         <v>115.83</v>
@@ -6335,19 +6335,19 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C164" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D164" s="2">
         <v>208671</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F164" s="1">
         <v>125.43</v>
@@ -6367,19 +6367,19 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D165" s="2">
         <v>208679</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F165" s="1">
         <v>134.11000000000001</v>
@@ -6399,19 +6399,19 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D166" s="2">
         <v>78489</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F166" s="1">
         <v>137.25</v>
@@ -6431,19 +6431,19 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D167" s="2">
         <v>208675</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F167" s="1">
         <v>138.47</v>
@@ -6463,19 +6463,19 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>8</v>
@@ -6495,16 +6495,16 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C169" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E169" s="3">
         <v>12</v>
@@ -6527,16 +6527,16 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E170" s="3">
         <v>11</v>
@@ -6559,16 +6559,16 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E171" s="3">
         <v>10</v>
@@ -6591,19 +6591,19 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B172" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C172" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F172" s="1">
         <v>63.28</v>
@@ -6623,19 +6623,19 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B173" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F173" s="1">
         <v>72.8</v>
@@ -6655,19 +6655,19 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D174" s="2">
         <v>81841</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F174" s="1">
         <v>105.98</v>
@@ -6687,19 +6687,19 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C175" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D175" s="2">
         <v>81811</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F175" s="1">
         <v>114.5</v>
@@ -6719,19 +6719,19 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D176" s="2">
         <v>78534</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F176" s="1">
         <v>119.68</v>
@@ -6751,19 +6751,19 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B177" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C177" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D177" s="2">
         <v>78490</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F177" s="1">
         <v>120.98</v>
@@ -6783,19 +6783,19 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C178" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D178" s="2">
         <v>78488</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F178" s="1">
         <v>123.73</v>
@@ -6815,19 +6815,19 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C179" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D179" s="2">
         <v>208669</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F179" s="1">
         <v>128.53</v>
@@ -6847,19 +6847,19 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D180" s="2">
         <v>78533</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F180" s="1">
         <v>140.9</v>
@@ -6879,19 +6879,19 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C181" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>8</v>
@@ -6911,19 +6911,19 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C182" t="s">
+        <v>44</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E182" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>8</v>

--- a/metadata/transducer_locations.xlsx
+++ b/metadata/transducer_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bowmani\Documents\Thesis - UoG\Temporary Deployments\2024\R\tdproc\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA625C46-0DFC-41E6-8622-2D8F56B35BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8CCD66-09FF-4D3F-8D7D-393C302E473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
   </bookViews>
   <sheets>
     <sheet name="ELR" sheetId="3" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+      <selection activeCell="H36" sqref="H36:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2216,6 +2216,9 @@
       <c r="G34" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H34" s="1">
+        <v>10</v>
+      </c>
       <c r="I34" t="b">
         <v>1</v>
       </c>
@@ -2245,6 +2248,9 @@
       <c r="G35" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H35" s="1">
+        <v>10</v>
+      </c>
       <c r="I35" t="b">
         <v>1</v>
       </c>
@@ -2275,7 +2281,7 @@
         <v>8</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -2307,7 +2313,7 @@
         <v>8</v>
       </c>
       <c r="H37" s="1">
-        <v>0</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -2339,7 +2345,7 @@
         <v>8</v>
       </c>
       <c r="H38" s="1">
-        <v>0</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
@@ -2371,7 +2377,7 @@
         <v>8</v>
       </c>
       <c r="H39" s="1">
-        <v>0</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
@@ -2403,7 +2409,7 @@
         <v>8</v>
       </c>
       <c r="H40" s="1">
-        <v>0</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="I40" t="b">
         <v>1</v>
@@ -2435,7 +2441,7 @@
         <v>8</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -2467,7 +2473,7 @@
         <v>8</v>
       </c>
       <c r="H42" s="1">
-        <v>0</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="I42" t="b">
         <v>1</v>
@@ -2499,7 +2505,7 @@
         <v>8</v>
       </c>
       <c r="H43" s="1">
-        <v>0</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
@@ -2531,7 +2537,7 @@
         <v>8</v>
       </c>
       <c r="H44" s="1">
-        <v>0</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
@@ -2563,7 +2569,7 @@
         <v>8</v>
       </c>
       <c r="H45" s="1">
-        <v>0</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
@@ -3938,6 +3944,9 @@
       <c r="G88" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H88" s="1">
+        <v>10</v>
+      </c>
       <c r="I88" t="b">
         <v>1</v>
       </c>
@@ -3967,6 +3976,9 @@
       <c r="G89" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H89" s="1">
+        <v>10</v>
+      </c>
       <c r="I89" t="b">
         <v>1</v>
       </c>
@@ -5564,6 +5576,9 @@
       <c r="G139" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H139" s="1">
+        <v>0</v>
+      </c>
       <c r="I139" t="b">
         <v>1</v>
       </c>
@@ -5593,6 +5608,9 @@
       <c r="G140" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H140" s="1">
+        <v>0</v>
+      </c>
       <c r="I140" t="b">
         <v>1</v>
       </c>
@@ -5622,6 +5640,9 @@
       <c r="G141" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H141" s="1">
+        <v>0</v>
+      </c>
       <c r="I141" t="b">
         <v>1</v>
       </c>
@@ -6930,6 +6951,9 @@
       </c>
       <c r="G182" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="H182" s="1">
+        <v>0</v>
       </c>
       <c r="I182" t="b">
         <v>1</v>

--- a/metadata/transducer_locations.xlsx
+++ b/metadata/transducer_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bowmani\Documents\Thesis - UoG\Temporary Deployments\2024\R\tdproc\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8CCD66-09FF-4D3F-8D7D-393C302E473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E8DB66-3D20-413E-8D5B-1D345FB4ED0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{807A9309-2486-124F-80A1-7729D5CF46D6}"/>
   </bookViews>
   <sheets>
     <sheet name="ELR" sheetId="3" r:id="rId1"/>
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8BA916-5B3E-4C43-9CC4-45BC13B1A502}">
   <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36:H45"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4521,7 +4521,7 @@
         <v>24.6</v>
       </c>
       <c r="H106" s="1">
-        <v>29.4</v>
+        <v>24.4</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
